--- a/REGULAR/RE-ENCODE/DIMARANAN, ARNOLD.xlsx
+++ b/REGULAR/RE-ENCODE/DIMARANAN, ARNOLD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D365FBB2-B4F5-4B41-9878-AA65B787D173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2925758-43AB-49D0-9080-3EF178C71853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="378">
   <si>
     <t>PERIOD</t>
   </si>
@@ -204,15 +204,6 @@
     <t>SL(30-0-0)</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>CL(2-0-0)</t>
-  </si>
-  <si>
-    <t>1/16,17/2020</t>
-  </si>
-  <si>
     <t>2/8,11/2020</t>
   </si>
   <si>
@@ -925,6 +916,268 @@
   </si>
   <si>
     <t>UT(2-1-9)</t>
+  </si>
+  <si>
+    <t>UT(1-0-23)</t>
+  </si>
+  <si>
+    <t>UT(1-0-58)</t>
+  </si>
+  <si>
+    <t>UT(3-1-28)</t>
+  </si>
+  <si>
+    <t>10/9,13,23,24</t>
+  </si>
+  <si>
+    <t>11/13,14,17</t>
+  </si>
+  <si>
+    <t>UT(UT(2-4-47)</t>
+  </si>
+  <si>
+    <t>11/26-28/2014\</t>
+  </si>
+  <si>
+    <t>12/15,16/2014</t>
+  </si>
+  <si>
+    <t>UT(0-4-47)</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>1/26,27/2015</t>
+  </si>
+  <si>
+    <t>5/7,8/2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>3/9,10,11</t>
+  </si>
+  <si>
+    <t>10/24,25/2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>MC 2/13</t>
+  </si>
+  <si>
+    <t>10/11-13/2017</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>10/23,24/2017</t>
+  </si>
+  <si>
+    <t>SL(1-0-00)</t>
+  </si>
+  <si>
+    <t>SP(1-0-00)</t>
+  </si>
+  <si>
+    <t>SL(2-0-00)</t>
+  </si>
+  <si>
+    <t>SL(5-0-00)</t>
+  </si>
+  <si>
+    <t>SVL(2-0-00)</t>
+  </si>
+  <si>
+    <t>UL(1-0-00)</t>
+  </si>
+  <si>
+    <t>U(1-0-00)</t>
+  </si>
+  <si>
+    <t>UL(2-0-00)</t>
+  </si>
+  <si>
+    <t>SVL(1-0-00)</t>
+  </si>
+  <si>
+    <t>SP(3-0-00)</t>
+  </si>
+  <si>
+    <t>VL(2-0-00)</t>
+  </si>
+  <si>
+    <t>VL(1-0-00)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2020</t>
+    </r>
+  </si>
+  <si>
+    <t>CL(5-0-00)</t>
+  </si>
+  <si>
+    <t>SP(2-0-00)</t>
+  </si>
+  <si>
+    <t>1/29/2018</t>
+  </si>
+  <si>
+    <t>2/8/12/2018</t>
+  </si>
+  <si>
+    <t>3/12/16-2018</t>
+  </si>
+  <si>
+    <t>3/21/23/2018</t>
+  </si>
+  <si>
+    <t>5/22/2018</t>
+  </si>
+  <si>
+    <t>5/28/2018</t>
+  </si>
+  <si>
+    <t>6/22/25/2018</t>
+  </si>
+  <si>
+    <t>7/20,23/2018</t>
+  </si>
+  <si>
+    <t>9/24/2018</t>
+  </si>
+  <si>
+    <t>10/25/2018</t>
+  </si>
+  <si>
+    <t>11/14/2018</t>
+  </si>
+  <si>
+    <t>11/16/2018</t>
+  </si>
+  <si>
+    <t>1/2/4/2019</t>
+  </si>
+  <si>
+    <t>1/17/2019</t>
+  </si>
+  <si>
+    <t>1/29/2019</t>
+  </si>
+  <si>
+    <t>2/13/2019</t>
+  </si>
+  <si>
+    <t>5/27/28/2018</t>
+  </si>
+  <si>
+    <t>3/18/19/26/2019</t>
+  </si>
+  <si>
+    <t>3/29/2019</t>
+  </si>
+  <si>
+    <t>4/20/2019</t>
+  </si>
+  <si>
+    <t>5/27/2019</t>
+  </si>
+  <si>
+    <t>5/7/8/2019</t>
+  </si>
+  <si>
+    <t>5/15/2019</t>
+  </si>
+  <si>
+    <t>5/22/23/2019</t>
+  </si>
+  <si>
+    <t>6/10/17/2019</t>
+  </si>
+  <si>
+    <t>6/2021/2019</t>
+  </si>
+  <si>
+    <t>7/19/22/2019</t>
+  </si>
+  <si>
+    <t>8/13/14/15</t>
+  </si>
+  <si>
+    <t>10/3/4/2019</t>
+  </si>
+  <si>
+    <t>11/21/2019</t>
+  </si>
+  <si>
+    <t>11/14/2019</t>
+  </si>
+  <si>
+    <t>12/16/2019</t>
+  </si>
+  <si>
+    <t>12/19/2019</t>
+  </si>
+  <si>
+    <t>1/15/17/23/2/3/24/2020</t>
+  </si>
+  <si>
+    <t>2/10/11/5/11/2020</t>
+  </si>
+  <si>
+    <t>2/17-20/2020</t>
+  </si>
+  <si>
+    <t>6/17/18/2020</t>
+  </si>
+  <si>
+    <t>7/2/3/2020</t>
+  </si>
+  <si>
+    <t>7/16/17</t>
+  </si>
+  <si>
+    <t>8/24/25/2020</t>
+  </si>
+  <si>
+    <t>7/29/2020</t>
+  </si>
+  <si>
+    <t>9/22/2020</t>
+  </si>
+  <si>
+    <t>3/3/4/2021</t>
+  </si>
+  <si>
+    <t>6/23/2020</t>
+  </si>
+  <si>
+    <t>7/27/2020</t>
+  </si>
+  <si>
+    <t>VL(5-0-00)</t>
+  </si>
+  <si>
+    <t>VL(-0-00)</t>
+  </si>
+  <si>
+    <t>VL(4-0-00)</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1357,6 +1610,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1635,7 +1894,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K497" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K516" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1964,12 +2223,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K497"/>
+  <dimension ref="A2:K516"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A321" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A340" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="H333" sqref="H333"/>
+      <selection pane="bottomLeft" activeCell="H139" sqref="H139:K152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2000,7 +2259,7 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="60" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G2" s="60"/>
       <c r="H2" s="28" t="s">
@@ -2015,14 +2274,14 @@
         <v>15</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
@@ -2046,7 +2305,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
@@ -2138,7 +2397,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>92.25100000000009</v>
+        <v>43.953000000000088</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2148,14 +2407,14 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>98.25</v>
+        <v>53.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -2317,7 +2576,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -2338,7 +2597,7 @@
         <v>35796</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" s="13">
         <v>1.25</v>
@@ -2362,7 +2621,7 @@
         <v>35827</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C20" s="13">
         <v>1.25</v>
@@ -2386,7 +2645,7 @@
         <v>35855</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C21" s="13">
         <v>1.25</v>
@@ -2410,7 +2669,7 @@
         <v>35886</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C22" s="13">
         <v>1.25</v>
@@ -2458,7 +2717,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="38">
@@ -2480,7 +2739,7 @@
         <v>35947</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C25" s="13">
         <v>1.25</v>
@@ -2498,13 +2757,13 @@
       <c r="I25" s="13"/>
       <c r="J25" s="11"/>
       <c r="K25" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
       <c r="B26" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="38">
@@ -2552,7 +2811,7 @@
         <v>36008</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C28" s="13">
         <v>1.25</v>
@@ -2600,7 +2859,7 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="38">
@@ -2668,7 +2927,7 @@
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="38">
@@ -2710,7 +2969,7 @@
         <v>36130</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C35" s="13">
         <v>1.25</v>
@@ -2732,7 +2991,7 @@
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="38">
@@ -2751,7 +3010,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -2772,7 +3031,7 @@
         <v>36161</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C38" s="13">
         <v>1.25</v>
@@ -2822,7 +3081,7 @@
         <v>36220</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C40" s="13">
         <v>1.25</v>
@@ -2870,7 +3129,7 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="38"/>
@@ -2886,7 +3145,7 @@
       <c r="I42" s="13"/>
       <c r="J42" s="11"/>
       <c r="K42" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2894,7 +3153,7 @@
         <v>36281</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C43" s="13">
         <v>1.25</v>
@@ -2912,7 +3171,7 @@
       <c r="I43" s="13"/>
       <c r="J43" s="11"/>
       <c r="K43" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2920,7 +3179,7 @@
         <v>36312</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C44" s="13">
         <v>1.25</v>
@@ -2944,7 +3203,7 @@
         <v>36342</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C45" s="13">
         <v>1.25</v>
@@ -2968,7 +3227,7 @@
         <v>36373</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C46" s="13">
         <v>1.25</v>
@@ -2992,7 +3251,7 @@
         <v>36404</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C47" s="13">
         <v>1.25</v>
@@ -3088,7 +3347,7 @@
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="38">
@@ -3110,7 +3369,7 @@
         <v>36495</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C52" s="13">
         <v>1.25</v>
@@ -3132,7 +3391,7 @@
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="38"/>
@@ -3146,12 +3405,12 @@
       <c r="I53" s="13"/>
       <c r="J53" s="11"/>
       <c r="K53" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -3216,7 +3475,7 @@
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="38">
@@ -3238,7 +3497,7 @@
         <v>36586</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C58" s="13">
         <v>1.25</v>
@@ -3260,7 +3519,7 @@
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="38"/>
@@ -3274,7 +3533,7 @@
       <c r="I59" s="13"/>
       <c r="J59" s="11"/>
       <c r="K59" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -3282,7 +3541,7 @@
         <v>36617</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C60" s="13">
         <v>1.25</v>
@@ -3304,7 +3563,7 @@
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="38"/>
@@ -3318,7 +3577,7 @@
       <c r="I61" s="13"/>
       <c r="J61" s="11"/>
       <c r="K61" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -3326,7 +3585,7 @@
         <v>36647</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C62" s="13">
         <v>1.25</v>
@@ -3364,7 +3623,7 @@
       <c r="I63" s="13"/>
       <c r="J63" s="11"/>
       <c r="K63" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3432,7 +3691,7 @@
         <v>36770</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C67" s="13">
         <v>1.25</v>
@@ -3450,7 +3709,7 @@
       <c r="I67" s="13"/>
       <c r="J67" s="11"/>
       <c r="K67" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -3519,7 +3778,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -3540,7 +3799,7 @@
         <v>36892</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C72" s="13">
         <v>1.25</v>
@@ -3564,7 +3823,7 @@
         <v>36923</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
@@ -3582,7 +3841,7 @@
       <c r="I73" s="13"/>
       <c r="J73" s="11"/>
       <c r="K73" s="50" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -3610,7 +3869,7 @@
         <v>36982</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C75" s="13">
         <v>1.25</v>
@@ -3628,7 +3887,7 @@
       <c r="I75" s="13"/>
       <c r="J75" s="11"/>
       <c r="K75" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -3636,7 +3895,7 @@
         <v>37012</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C76" s="13">
         <v>1.25</v>
@@ -3652,7 +3911,7 @@
       <c r="I76" s="13"/>
       <c r="J76" s="11"/>
       <c r="K76" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -3680,7 +3939,7 @@
         <v>37073</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C78" s="13">
         <v>1.25</v>
@@ -3702,7 +3961,7 @@
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23"/>
       <c r="B79" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="38"/>
@@ -3718,7 +3977,7 @@
       <c r="I79" s="13"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -3726,7 +3985,7 @@
         <v>37104</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C80" s="13">
         <v>1.25</v>
@@ -3810,7 +4069,7 @@
       <c r="I83" s="13"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -3832,7 +4091,7 @@
       <c r="I84" s="13"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -3854,13 +4113,13 @@
       <c r="I85" s="13"/>
       <c r="J85" s="11"/>
       <c r="K85" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="38"/>
@@ -3876,7 +4135,7 @@
       <c r="I86" s="13"/>
       <c r="J86" s="11"/>
       <c r="K86" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -3921,7 +4180,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="47" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3942,7 +4201,7 @@
         <v>37257</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C90" s="13">
         <v>1.25</v>
@@ -3984,7 +4243,7 @@
       <c r="I91" s="13"/>
       <c r="J91" s="11"/>
       <c r="K91" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -4006,13 +4265,13 @@
       <c r="I92" s="13"/>
       <c r="J92" s="11"/>
       <c r="K92" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="38">
@@ -4034,7 +4293,7 @@
         <v>37316</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C94" s="13">
         <v>1.25</v>
@@ -4050,13 +4309,13 @@
       <c r="I94" s="13"/>
       <c r="J94" s="11"/>
       <c r="K94" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="38">
@@ -4078,7 +4337,7 @@
         <v>37347</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C96" s="13">
         <v>1.25</v>
@@ -4102,7 +4361,7 @@
         <v>37377</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C97" s="13">
         <v>1.25</v>
@@ -4118,7 +4377,7 @@
       <c r="I97" s="13"/>
       <c r="J97" s="11"/>
       <c r="K97" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -4144,7 +4403,7 @@
       <c r="I98" s="13"/>
       <c r="J98" s="11"/>
       <c r="K98" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -4256,13 +4515,13 @@
       <c r="I103" s="13"/>
       <c r="J103" s="11"/>
       <c r="K103" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="38"/>
@@ -4278,7 +4537,7 @@
       <c r="I104" s="13"/>
       <c r="J104" s="11"/>
       <c r="K104" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
@@ -4307,7 +4566,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="47" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4488,7 +4747,7 @@
         <v>37865</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C115" s="13">
         <v>1.25</v>
@@ -4512,7 +4771,7 @@
         <v>37895</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C116" s="13">
         <v>1.25</v>
@@ -4536,7 +4795,7 @@
         <v>37926</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C117" s="13">
         <v>1.25</v>
@@ -4581,7 +4840,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4682,7 +4941,7 @@
         <v>38108</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C124" s="13">
         <v>1.25</v>
@@ -4704,7 +4963,7 @@
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="38"/>
@@ -4720,7 +4979,7 @@
       <c r="I125" s="13"/>
       <c r="J125" s="11"/>
       <c r="K125" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
@@ -4728,7 +4987,7 @@
         <v>38139</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C126" s="13">
         <v>1.25</v>
@@ -4766,7 +5025,7 @@
       <c r="I127" s="13"/>
       <c r="J127" s="11"/>
       <c r="K127" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
@@ -4774,7 +5033,7 @@
         <v>38169</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C128" s="13">
         <v>1.25</v>
@@ -4812,7 +5071,7 @@
       <c r="I129" s="13"/>
       <c r="J129" s="11"/>
       <c r="K129" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -4820,7 +5079,7 @@
         <v>38200</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C130" s="13">
         <v>1.25</v>
@@ -4844,7 +5103,7 @@
         <v>38231</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C131" s="13">
         <v>1.25</v>
@@ -4862,13 +5121,13 @@
       <c r="I131" s="13"/>
       <c r="J131" s="11"/>
       <c r="K131" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="38">
@@ -4890,7 +5149,7 @@
         <v>38261</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C133" s="13">
         <v>1.25</v>
@@ -4908,7 +5167,7 @@
       <c r="I133" s="13"/>
       <c r="J133" s="11"/>
       <c r="K133" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -4930,13 +5189,13 @@
       <c r="I134" s="13"/>
       <c r="J134" s="11"/>
       <c r="K134" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C135" s="13"/>
       <c r="D135" s="38">
@@ -4958,7 +5217,7 @@
         <v>38292</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C136" s="13">
         <v>1.25</v>
@@ -4982,7 +5241,7 @@
         <v>38322</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C137" s="13">
         <v>1.25</v>
@@ -5003,7 +5262,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5024,7 +5283,7 @@
         <v>38353</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C139" s="13">
         <v>1.25</v>
@@ -5048,7 +5307,7 @@
         <v>38384</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C140" s="13">
         <v>1.25</v>
@@ -5072,7 +5331,7 @@
         <v>38412</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C141" s="13">
         <v>1.25</v>
@@ -5096,7 +5355,7 @@
         <v>38443</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C142" s="13">
         <v>1.25</v>
@@ -5120,7 +5379,7 @@
         <v>38473</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C143" s="13">
         <v>1.25</v>
@@ -5144,7 +5403,7 @@
         <v>38504</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C144" s="13">
         <v>1.25</v>
@@ -5168,7 +5427,7 @@
         <v>38534</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C145" s="13">
         <v>1.25</v>
@@ -5192,7 +5451,7 @@
         <v>38565</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C146" s="13">
         <v>1.25</v>
@@ -5216,7 +5475,7 @@
         <v>38596</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C147" s="13">
         <v>1.25</v>
@@ -5240,7 +5499,7 @@
         <v>38626</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C148" s="13">
         <v>1.25</v>
@@ -5288,7 +5547,7 @@
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C150" s="13"/>
       <c r="D150" s="38">
@@ -5310,7 +5569,7 @@
         <v>38687</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C151" s="13">
         <v>1.25</v>
@@ -5328,12 +5587,12 @@
       <c r="I151" s="13"/>
       <c r="J151" s="11"/>
       <c r="K151" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="47" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -5354,7 +5613,7 @@
         <v>38718</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C153" s="13">
         <v>1.25</v>
@@ -5422,7 +5681,7 @@
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C156" s="13"/>
       <c r="D156" s="38"/>
@@ -5436,7 +5695,7 @@
       <c r="I156" s="13"/>
       <c r="J156" s="11"/>
       <c r="K156" s="48" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
@@ -5482,7 +5741,7 @@
       <c r="I158" s="13"/>
       <c r="J158" s="11"/>
       <c r="K158" s="20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
@@ -5490,7 +5749,7 @@
         <v>38869</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C159" s="13">
         <v>1.25</v>
@@ -5534,7 +5793,7 @@
         <v>38930</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C161" s="13">
         <v>1.25</v>
@@ -5558,7 +5817,7 @@
         <v>38961</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C162" s="13">
         <v>1.25</v>
@@ -5582,7 +5841,7 @@
         <v>38991</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C163" s="13">
         <v>1.25</v>
@@ -5647,10 +5906,10 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="47" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B166" s="53" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C166" s="51"/>
       <c r="D166" s="52"/>
@@ -5667,7 +5926,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="47" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -5688,7 +5947,7 @@
         <v>39494</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C168" s="13">
         <v>0.625</v>
@@ -5712,7 +5971,7 @@
         <v>39508</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C169" s="13">
         <v>1.25</v>
@@ -5728,13 +5987,13 @@
       <c r="I169" s="13"/>
       <c r="J169" s="11"/>
       <c r="K169" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C170" s="13"/>
       <c r="D170" s="38">
@@ -5782,7 +6041,7 @@
         <v>39569</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C172" s="13">
         <v>1.25</v>
@@ -5824,13 +6083,13 @@
       <c r="I173" s="13"/>
       <c r="J173" s="11"/>
       <c r="K173" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="38">
@@ -5876,7 +6135,7 @@
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C176" s="13"/>
       <c r="D176" s="38">
@@ -5898,7 +6157,7 @@
         <v>39661</v>
       </c>
       <c r="B177" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C177" s="13">
         <v>1.25</v>
@@ -5922,7 +6181,7 @@
         <v>39692</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C178" s="13">
         <v>1.25</v>
@@ -5964,13 +6223,13 @@
       <c r="I179" s="13"/>
       <c r="J179" s="11"/>
       <c r="K179" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C180" s="13"/>
       <c r="D180" s="38">
@@ -5992,7 +6251,7 @@
         <v>39753</v>
       </c>
       <c r="B181" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C181" s="13">
         <v>1.25</v>
@@ -6038,7 +6297,7 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C183" s="13"/>
       <c r="D183" s="38">
@@ -6057,7 +6316,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -6078,7 +6337,7 @@
         <v>39814</v>
       </c>
       <c r="B185" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C185" s="13">
         <v>1.25</v>
@@ -6126,7 +6385,7 @@
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C187" s="13"/>
       <c r="D187" s="38">
@@ -6172,7 +6431,7 @@
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C189" s="13"/>
       <c r="D189" s="38"/>
@@ -6186,13 +6445,13 @@
       <c r="I189" s="13"/>
       <c r="J189" s="11"/>
       <c r="K189" s="48" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C190" s="13"/>
       <c r="D190" s="38">
@@ -6260,7 +6519,7 @@
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C193" s="13"/>
       <c r="D193" s="38">
@@ -6306,7 +6565,7 @@
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C195" s="13"/>
       <c r="D195" s="38">
@@ -6352,7 +6611,7 @@
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C197" s="13"/>
       <c r="D197" s="38">
@@ -6398,7 +6657,7 @@
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C199" s="13"/>
       <c r="D199" s="38">
@@ -6420,7 +6679,7 @@
         <v>40026</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C200" s="13">
         <v>1.25</v>
@@ -6438,7 +6697,7 @@
       <c r="I200" s="13"/>
       <c r="J200" s="11"/>
       <c r="K200" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
@@ -6488,7 +6747,7 @@
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C203" s="13"/>
       <c r="D203" s="38">
@@ -6510,7 +6769,7 @@
         <v>40057</v>
       </c>
       <c r="B204" s="20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C204" s="13">
         <v>1.25</v>
@@ -6574,13 +6833,13 @@
       <c r="I206" s="13"/>
       <c r="J206" s="11"/>
       <c r="K206" s="48" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C207" s="13"/>
       <c r="D207" s="38"/>
@@ -6594,13 +6853,13 @@
       <c r="I207" s="13"/>
       <c r="J207" s="11"/>
       <c r="K207" s="48" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C208" s="13"/>
       <c r="D208" s="38">
@@ -6646,7 +6905,7 @@
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C210" s="13"/>
       <c r="D210" s="38">
@@ -6666,7 +6925,7 @@
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C211" s="13"/>
       <c r="D211" s="38">
@@ -6682,7 +6941,7 @@
       <c r="I211" s="13"/>
       <c r="J211" s="11"/>
       <c r="K211" s="48" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
@@ -6690,7 +6949,7 @@
         <v>40148</v>
       </c>
       <c r="B212" s="20" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C212" s="13">
         <v>1.25</v>
@@ -6711,7 +6970,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="47" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -6756,7 +7015,7 @@
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C215" s="13"/>
       <c r="D215" s="38">
@@ -6818,13 +7077,13 @@
       <c r="I217" s="13"/>
       <c r="J217" s="11"/>
       <c r="K217" s="20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C218" s="13"/>
       <c r="D218" s="38">
@@ -6886,13 +7145,13 @@
       <c r="I220" s="13"/>
       <c r="J220" s="11"/>
       <c r="K220" s="48" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C221" s="13"/>
       <c r="D221" s="38"/>
@@ -6906,13 +7165,13 @@
       <c r="I221" s="13"/>
       <c r="J221" s="11"/>
       <c r="K221" s="48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C222" s="13"/>
       <c r="D222" s="38"/>
@@ -6926,7 +7185,7 @@
       <c r="I222" s="13"/>
       <c r="J222" s="11"/>
       <c r="K222" s="48" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
@@ -6954,7 +7213,7 @@
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C224" s="13"/>
       <c r="D224" s="38">
@@ -7000,7 +7259,7 @@
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C226" s="13"/>
       <c r="D226" s="38">
@@ -7040,7 +7299,7 @@
       <c r="I227" s="13"/>
       <c r="J227" s="11"/>
       <c r="K227" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
@@ -7062,13 +7321,13 @@
       <c r="I228" s="13"/>
       <c r="J228" s="11"/>
       <c r="K228" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C229" s="13"/>
       <c r="D229" s="38">
@@ -7136,7 +7395,7 @@
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C232" s="13"/>
       <c r="D232" s="38">
@@ -7158,7 +7417,7 @@
         <v>40360</v>
       </c>
       <c r="B233" s="20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C233" s="13">
         <v>1.25</v>
@@ -7228,7 +7487,7 @@
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C236" s="13"/>
       <c r="D236" s="38">
@@ -7274,7 +7533,7 @@
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C238" s="13"/>
       <c r="D238" s="38">
@@ -7314,7 +7573,7 @@
       <c r="I239" s="13"/>
       <c r="J239" s="11"/>
       <c r="K239" s="20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
@@ -7342,7 +7601,7 @@
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C241" s="13"/>
       <c r="D241" s="38">
@@ -7364,7 +7623,7 @@
         <v>40483</v>
       </c>
       <c r="B242" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C242" s="13">
         <v>1.25</v>
@@ -7382,7 +7641,7 @@
       <c r="I242" s="13"/>
       <c r="J242" s="11"/>
       <c r="K242" s="20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
@@ -7410,7 +7669,7 @@
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C244" s="13"/>
       <c r="D244" s="38">
@@ -7450,13 +7709,13 @@
       <c r="I245" s="13"/>
       <c r="J245" s="11"/>
       <c r="K245" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C246" s="13"/>
       <c r="D246" s="38">
@@ -7475,7 +7734,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="47" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="13"/>
@@ -7564,7 +7823,7 @@
     <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C251" s="13"/>
       <c r="D251" s="38">
@@ -7604,7 +7863,7 @@
       <c r="I252" s="13"/>
       <c r="J252" s="11"/>
       <c r="K252" s="20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
@@ -7626,13 +7885,13 @@
       <c r="I253" s="13"/>
       <c r="J253" s="11"/>
       <c r="K253" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C254" s="13"/>
       <c r="D254" s="38">
@@ -7654,7 +7913,7 @@
         <v>40603</v>
       </c>
       <c r="B255" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C255" s="13">
         <v>1.25</v>
@@ -7670,7 +7929,7 @@
       <c r="I255" s="13"/>
       <c r="J255" s="11"/>
       <c r="K255" s="20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
@@ -7720,7 +7979,7 @@
     <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C258" s="13"/>
       <c r="D258" s="38"/>
@@ -7734,13 +7993,13 @@
       <c r="I258" s="13"/>
       <c r="J258" s="11"/>
       <c r="K258" s="20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C259" s="13"/>
       <c r="D259" s="38">
@@ -7786,7 +8045,7 @@
     <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C261" s="13"/>
       <c r="D261" s="38">
@@ -7808,7 +8067,7 @@
         <v>40664</v>
       </c>
       <c r="B262" s="20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C262" s="13">
         <v>1.25</v>
@@ -7830,7 +8089,7 @@
     <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C263" s="13"/>
       <c r="D263" s="38"/>
@@ -7846,7 +8105,7 @@
       <c r="I263" s="13"/>
       <c r="J263" s="11"/>
       <c r="K263" s="20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.3">
@@ -7872,7 +8131,7 @@
       <c r="I264" s="13"/>
       <c r="J264" s="11"/>
       <c r="K264" s="20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
@@ -7922,7 +8181,7 @@
     <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C267" s="13"/>
       <c r="D267" s="38">
@@ -7944,7 +8203,7 @@
         <v>40725</v>
       </c>
       <c r="B268" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C268" s="13">
         <v>1.25</v>
@@ -7992,7 +8251,7 @@
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C270" s="13"/>
       <c r="D270" s="38">
@@ -8014,7 +8273,7 @@
         <v>40787</v>
       </c>
       <c r="B271" s="20" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C271" s="13">
         <v>1.25</v>
@@ -8036,7 +8295,7 @@
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C272" s="13"/>
       <c r="D272" s="38"/>
@@ -8052,7 +8311,7 @@
       <c r="I272" s="13"/>
       <c r="J272" s="11"/>
       <c r="K272" s="20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
@@ -8060,7 +8319,7 @@
         <v>40817</v>
       </c>
       <c r="B273" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C273" s="13">
         <v>1.25</v>
@@ -8082,7 +8341,7 @@
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C274" s="13"/>
       <c r="D274" s="38"/>
@@ -8098,7 +8357,7 @@
       <c r="I274" s="13"/>
       <c r="J274" s="11"/>
       <c r="K274" s="20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
@@ -8124,13 +8383,13 @@
       <c r="I275" s="13"/>
       <c r="J275" s="11"/>
       <c r="K275" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C276" s="13"/>
       <c r="D276" s="38">
@@ -8170,7 +8429,7 @@
       <c r="I277" s="13"/>
       <c r="J277" s="11"/>
       <c r="K277" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
@@ -8192,13 +8451,13 @@
       <c r="I278" s="13"/>
       <c r="J278" s="11"/>
       <c r="K278" s="20" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C279" s="13"/>
       <c r="D279" s="38">
@@ -8217,7 +8476,7 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="47" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="13"/>
@@ -8238,7 +8497,7 @@
         <v>40909</v>
       </c>
       <c r="B281" s="20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C281" s="13">
         <v>1.25</v>
@@ -8262,7 +8521,7 @@
         <v>40940</v>
       </c>
       <c r="B282" s="20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C282" s="13">
         <v>1.25</v>
@@ -8286,7 +8545,7 @@
         <v>40969</v>
       </c>
       <c r="B283" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C283" s="13">
         <v>1.25</v>
@@ -8302,7 +8561,7 @@
       <c r="I283" s="13"/>
       <c r="J283" s="11"/>
       <c r="K283" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
@@ -8324,13 +8583,13 @@
       <c r="I284" s="13"/>
       <c r="J284" s="11"/>
       <c r="K284" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C285" s="13"/>
       <c r="D285" s="38">
@@ -8352,7 +8611,7 @@
         <v>41000</v>
       </c>
       <c r="B286" s="20" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C286" s="13">
         <v>1.25</v>
@@ -8394,13 +8653,13 @@
       <c r="I287" s="13"/>
       <c r="J287" s="11"/>
       <c r="K287" s="20" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C288" s="13"/>
       <c r="D288" s="38"/>
@@ -8444,7 +8703,7 @@
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C290" s="13"/>
       <c r="D290" s="38">
@@ -8484,7 +8743,7 @@
       <c r="I291" s="13"/>
       <c r="J291" s="11"/>
       <c r="K291" s="20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
@@ -8506,13 +8765,13 @@
       <c r="I292" s="13"/>
       <c r="J292" s="11"/>
       <c r="K292" s="20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C293" s="13"/>
       <c r="D293" s="38">
@@ -8534,7 +8793,7 @@
         <v>41122</v>
       </c>
       <c r="B294" s="20" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C294" s="13">
         <v>1.25</v>
@@ -8604,7 +8863,7 @@
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C297" s="13"/>
       <c r="D297" s="38">
@@ -8626,7 +8885,7 @@
         <v>41183</v>
       </c>
       <c r="B298" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C298" s="13">
         <v>1.25</v>
@@ -8644,13 +8903,13 @@
       <c r="I298" s="13"/>
       <c r="J298" s="11"/>
       <c r="K298" s="20" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C299" s="13"/>
       <c r="D299" s="38">
@@ -8672,7 +8931,7 @@
         <v>41214</v>
       </c>
       <c r="B300" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C300" s="13">
         <v>1.25</v>
@@ -8690,13 +8949,13 @@
       <c r="I300" s="13"/>
       <c r="J300" s="11"/>
       <c r="K300" s="20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C301" s="13"/>
       <c r="D301" s="38">
@@ -8736,13 +8995,13 @@
       <c r="I302" s="13"/>
       <c r="J302" s="11"/>
       <c r="K302" s="20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C303" s="13"/>
       <c r="D303" s="38">
@@ -8761,7 +9020,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="47" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="13"/>
@@ -8782,7 +9041,7 @@
         <v>41275</v>
       </c>
       <c r="B305" s="20" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C305" s="13">
         <v>1.25</v>
@@ -8828,7 +9087,7 @@
         <v>41306</v>
       </c>
       <c r="B307" s="20" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C307" s="13">
         <v>1.25</v>
@@ -8852,7 +9111,7 @@
         <v>41334</v>
       </c>
       <c r="B308" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C308" s="13">
         <v>1.25</v>
@@ -8868,7 +9127,7 @@
       <c r="I308" s="13"/>
       <c r="J308" s="11"/>
       <c r="K308" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
@@ -8896,7 +9155,7 @@
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C310" s="13"/>
       <c r="D310" s="38">
@@ -8942,7 +9201,7 @@
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C312" s="13"/>
       <c r="D312" s="38">
@@ -8964,7 +9223,7 @@
         <v>41395</v>
       </c>
       <c r="B313" s="20" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C313" s="13">
         <v>1.25</v>
@@ -8988,7 +9247,7 @@
         <v>41426</v>
       </c>
       <c r="B314" s="20" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C314" s="13">
         <v>1.25</v>
@@ -9012,7 +9271,7 @@
         <v>41456</v>
       </c>
       <c r="B315" s="20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C315" s="13">
         <v>1.25</v>
@@ -9036,7 +9295,7 @@
         <v>41487</v>
       </c>
       <c r="B316" s="20" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C316" s="13">
         <v>1.25</v>
@@ -9060,7 +9319,7 @@
         <v>41518</v>
       </c>
       <c r="B317" s="20" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C317" s="13">
         <v>1.25</v>
@@ -9102,13 +9361,13 @@
       <c r="I318" s="13"/>
       <c r="J318" s="11"/>
       <c r="K318" s="20" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C319" s="13"/>
       <c r="D319" s="38">
@@ -9130,7 +9389,7 @@
         <v>41579</v>
       </c>
       <c r="B320" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C320" s="13">
         <v>1.25</v>
@@ -9148,7 +9407,7 @@
       <c r="I320" s="13"/>
       <c r="J320" s="11"/>
       <c r="K320" s="20" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
@@ -9170,13 +9429,13 @@
       <c r="I321" s="13"/>
       <c r="J321" s="11"/>
       <c r="K321" s="20" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C322" s="13"/>
       <c r="D322" s="38">
@@ -9198,7 +9457,7 @@
         <v>41609</v>
       </c>
       <c r="B323" s="20" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C323" s="13">
         <v>1.25</v>
@@ -9220,7 +9479,7 @@
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23"/>
       <c r="B324" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C324" s="13"/>
       <c r="D324" s="38"/>
@@ -9236,12 +9495,12 @@
       <c r="I324" s="13"/>
       <c r="J324" s="11"/>
       <c r="K324" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="47" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="13"/>
@@ -9262,7 +9521,7 @@
         <v>41640</v>
       </c>
       <c r="B326" s="20" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C326" s="13">
         <v>1.25</v>
@@ -9286,7 +9545,7 @@
         <v>41671</v>
       </c>
       <c r="B327" s="20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C327" s="13">
         <v>1.25</v>
@@ -9310,7 +9569,7 @@
         <v>41699</v>
       </c>
       <c r="B328" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C328" s="13">
         <v>1.25</v>
@@ -9326,7 +9585,7 @@
       <c r="I328" s="13"/>
       <c r="J328" s="11"/>
       <c r="K328" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
@@ -9354,7 +9613,7 @@
     <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C330" s="13"/>
       <c r="D330" s="38">
@@ -9376,7 +9635,7 @@
         <v>41730</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C331" s="13">
         <v>1.25</v>
@@ -9400,7 +9659,7 @@
         <v>41760</v>
       </c>
       <c r="B332" s="20" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C332" s="13">
         <v>1.25</v>
@@ -9424,7 +9683,7 @@
         <v>41791</v>
       </c>
       <c r="B333" s="20" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C333" s="13">
         <v>1.25</v>
@@ -9448,7 +9707,7 @@
         <v>41821</v>
       </c>
       <c r="B334" s="20" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C334" s="13">
         <v>1.25</v>
@@ -9471,11 +9730,15 @@
       <c r="A335" s="23">
         <v>41852</v>
       </c>
-      <c r="B335" s="20"/>
+      <c r="B335" s="20" t="s">
+        <v>295</v>
+      </c>
       <c r="C335" s="13">
         <v>1.25</v>
       </c>
-      <c r="D335" s="38"/>
+      <c r="D335" s="38">
+        <v>1.121</v>
+      </c>
       <c r="E335" s="13"/>
       <c r="F335" s="20"/>
       <c r="G335" s="13">
@@ -9491,11 +9754,15 @@
       <c r="A336" s="23">
         <v>41883</v>
       </c>
-      <c r="B336" s="20"/>
+      <c r="B336" s="20" t="s">
+        <v>296</v>
+      </c>
       <c r="C336" s="13">
         <v>1.25</v>
       </c>
-      <c r="D336" s="38"/>
+      <c r="D336" s="38">
+        <v>3.1829999999999998</v>
+      </c>
       <c r="E336" s="13"/>
       <c r="F336" s="20"/>
       <c r="G336" s="13">
@@ -9511,11 +9778,15 @@
       <c r="A337" s="23">
         <v>41913</v>
       </c>
-      <c r="B337" s="20"/>
+      <c r="B337" s="20" t="s">
+        <v>294</v>
+      </c>
       <c r="C337" s="13">
         <v>1.25</v>
       </c>
-      <c r="D337" s="38"/>
+      <c r="D337" s="38">
+        <v>1.048</v>
+      </c>
       <c r="E337" s="13"/>
       <c r="F337" s="20"/>
       <c r="G337" s="13">
@@ -9528,30 +9799,34 @@
       <c r="K337" s="20"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A338" s="23">
-        <v>41944</v>
-      </c>
-      <c r="B338" s="20"/>
-      <c r="C338" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A338" s="23"/>
+      <c r="B338" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C338" s="13"/>
       <c r="D338" s="38"/>
       <c r="E338" s="13"/>
       <c r="F338" s="20"/>
-      <c r="G338" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H338" s="38"/>
+      <c r="G338" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H338" s="38">
+        <v>4</v>
+      </c>
       <c r="I338" s="13"/>
       <c r="J338" s="11"/>
-      <c r="K338" s="20"/>
+      <c r="K338" s="20" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23">
-        <v>41974</v>
-      </c>
-      <c r="B339" s="20"/>
+        <v>41944</v>
+      </c>
+      <c r="B339" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C339" s="13">
         <v>1.25</v>
       </c>
@@ -9562,25 +9837,29 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H339" s="38"/>
+      <c r="H339" s="38">
+        <v>3</v>
+      </c>
       <c r="I339" s="13"/>
       <c r="J339" s="11"/>
-      <c r="K339" s="20"/>
+      <c r="K339" s="20" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A340" s="23">
-        <v>42005</v>
-      </c>
-      <c r="B340" s="20"/>
-      <c r="C340" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D340" s="38"/>
+      <c r="A340" s="23"/>
+      <c r="B340" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C340" s="13"/>
+      <c r="D340" s="38">
+        <v>2.5979999999999999</v>
+      </c>
       <c r="E340" s="13"/>
       <c r="F340" s="20"/>
-      <c r="G340" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G340" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H340" s="38"/>
       <c r="I340" s="13"/>
@@ -9589,13 +9868,17 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23">
-        <v>42036</v>
-      </c>
-      <c r="B341" s="20"/>
+        <v>41974</v>
+      </c>
+      <c r="B341" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C341" s="13">
         <v>1.25</v>
       </c>
-      <c r="D341" s="38"/>
+      <c r="D341" s="38">
+        <v>3</v>
+      </c>
       <c r="E341" s="13"/>
       <c r="F341" s="20"/>
       <c r="G341" s="13">
@@ -9605,42 +9888,46 @@
       <c r="H341" s="38"/>
       <c r="I341" s="13"/>
       <c r="J341" s="11"/>
-      <c r="K341" s="20"/>
+      <c r="K341" s="20" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A342" s="23">
-        <v>42064</v>
-      </c>
-      <c r="B342" s="20"/>
-      <c r="C342" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D342" s="38"/>
+      <c r="A342" s="23"/>
+      <c r="B342" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C342" s="13"/>
+      <c r="D342" s="38">
+        <v>2</v>
+      </c>
       <c r="E342" s="13"/>
       <c r="F342" s="20"/>
-      <c r="G342" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G342" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H342" s="38"/>
       <c r="I342" s="13"/>
       <c r="J342" s="11"/>
-      <c r="K342" s="20"/>
+      <c r="K342" s="20" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A343" s="23">
-        <v>42095</v>
-      </c>
-      <c r="B343" s="20"/>
-      <c r="C343" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D343" s="38"/>
+      <c r="A343" s="23"/>
+      <c r="B343" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="C343" s="13"/>
+      <c r="D343" s="38">
+        <v>0.59799999999999998</v>
+      </c>
       <c r="E343" s="13"/>
       <c r="F343" s="20"/>
-      <c r="G343" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G343" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H343" s="38"/>
       <c r="I343" s="13"/>
@@ -9648,19 +9935,17 @@
       <c r="K343" s="20"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A344" s="23">
-        <v>42125</v>
+      <c r="A344" s="47" t="s">
+        <v>303</v>
       </c>
       <c r="B344" s="20"/>
-      <c r="C344" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C344" s="13"/>
       <c r="D344" s="38"/>
       <c r="E344" s="13"/>
       <c r="F344" s="20"/>
-      <c r="G344" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G344" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H344" s="38"/>
       <c r="I344" s="13"/>
@@ -9669,9 +9954,11 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23">
-        <v>42156</v>
-      </c>
-      <c r="B345" s="20"/>
+        <v>42005</v>
+      </c>
+      <c r="B345" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C345" s="13">
         <v>1.25</v>
       </c>
@@ -9682,14 +9969,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H345" s="38"/>
+      <c r="H345" s="38">
+        <v>2</v>
+      </c>
       <c r="I345" s="13"/>
       <c r="J345" s="11"/>
-      <c r="K345" s="20"/>
+      <c r="K345" s="20" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23">
-        <v>42186</v>
+        <v>42036</v>
       </c>
       <c r="B346" s="20"/>
       <c r="C346" s="13">
@@ -9709,9 +10000,11 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23">
-        <v>42217</v>
-      </c>
-      <c r="B347" s="20"/>
+        <v>42064</v>
+      </c>
+      <c r="B347" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C347" s="13">
         <v>1.25</v>
       </c>
@@ -9725,31 +10018,35 @@
       <c r="H347" s="38"/>
       <c r="I347" s="13"/>
       <c r="J347" s="11"/>
-      <c r="K347" s="20"/>
+      <c r="K347" s="20" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A348" s="23">
-        <v>42248</v>
-      </c>
-      <c r="B348" s="20"/>
-      <c r="C348" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A348" s="23"/>
+      <c r="B348" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C348" s="13"/>
       <c r="D348" s="38"/>
       <c r="E348" s="13"/>
       <c r="F348" s="20"/>
-      <c r="G348" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H348" s="38"/>
+      <c r="G348" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H348" s="38">
+        <v>1</v>
+      </c>
       <c r="I348" s="13"/>
       <c r="J348" s="11"/>
-      <c r="K348" s="20"/>
+      <c r="K348" s="48">
+        <v>42088</v>
+      </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23">
-        <v>42278</v>
+        <v>42095</v>
       </c>
       <c r="B349" s="20"/>
       <c r="C349" s="13">
@@ -9769,9 +10066,11 @@
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23">
-        <v>42309</v>
-      </c>
-      <c r="B350" s="20"/>
+        <v>42125</v>
+      </c>
+      <c r="B350" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C350" s="13">
         <v>1.25</v>
       </c>
@@ -9782,14 +10081,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H350" s="38"/>
+      <c r="H350" s="38">
+        <v>2</v>
+      </c>
       <c r="I350" s="13"/>
       <c r="J350" s="11"/>
-      <c r="K350" s="20"/>
+      <c r="K350" s="20" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23">
-        <v>42339</v>
+        <v>42156</v>
       </c>
       <c r="B351" s="20"/>
       <c r="C351" s="13">
@@ -9809,7 +10112,7 @@
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23">
-        <v>42370</v>
+        <v>42186</v>
       </c>
       <c r="B352" s="20"/>
       <c r="C352" s="13">
@@ -9829,7 +10132,7 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23">
-        <v>42401</v>
+        <v>42217</v>
       </c>
       <c r="B353" s="20"/>
       <c r="C353" s="13">
@@ -9849,7 +10152,7 @@
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23">
-        <v>42430</v>
+        <v>42248</v>
       </c>
       <c r="B354" s="20"/>
       <c r="C354" s="13">
@@ -9869,7 +10172,7 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23">
-        <v>42461</v>
+        <v>42278</v>
       </c>
       <c r="B355" s="20"/>
       <c r="C355" s="13">
@@ -9889,7 +10192,7 @@
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23">
-        <v>42491</v>
+        <v>42309</v>
       </c>
       <c r="B356" s="20"/>
       <c r="C356" s="13">
@@ -9909,13 +10212,17 @@
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23">
-        <v>42522</v>
-      </c>
-      <c r="B357" s="20"/>
+        <v>42339</v>
+      </c>
+      <c r="B357" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C357" s="13">
         <v>1.25</v>
       </c>
-      <c r="D357" s="38"/>
+      <c r="D357" s="38">
+        <v>5</v>
+      </c>
       <c r="E357" s="13"/>
       <c r="F357" s="20"/>
       <c r="G357" s="13">
@@ -9928,19 +10235,17 @@
       <c r="K357" s="20"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A358" s="23">
-        <v>42552</v>
+      <c r="A358" s="47" t="s">
+        <v>306</v>
       </c>
       <c r="B358" s="20"/>
-      <c r="C358" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C358" s="13"/>
       <c r="D358" s="38"/>
       <c r="E358" s="13"/>
       <c r="F358" s="20"/>
-      <c r="G358" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G358" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H358" s="38"/>
       <c r="I358" s="13"/>
@@ -9949,7 +10254,7 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23">
-        <v>42583</v>
+        <v>42370</v>
       </c>
       <c r="B359" s="20"/>
       <c r="C359" s="13">
@@ -9969,7 +10274,7 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23">
-        <v>42614</v>
+        <v>42401</v>
       </c>
       <c r="B360" s="20"/>
       <c r="C360" s="13">
@@ -9989,9 +10294,11 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23">
-        <v>42644</v>
-      </c>
-      <c r="B361" s="20"/>
+        <v>42430</v>
+      </c>
+      <c r="B361" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C361" s="13">
         <v>1.25</v>
       </c>
@@ -10002,34 +10309,40 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H361" s="38"/>
+      <c r="H361" s="38">
+        <v>3</v>
+      </c>
       <c r="I361" s="13"/>
       <c r="J361" s="11"/>
-      <c r="K361" s="20"/>
+      <c r="K361" s="20" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A362" s="23">
-        <v>42675</v>
-      </c>
-      <c r="B362" s="20"/>
-      <c r="C362" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A362" s="23"/>
+      <c r="B362" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C362" s="13"/>
       <c r="D362" s="38"/>
       <c r="E362" s="13"/>
       <c r="F362" s="20"/>
-      <c r="G362" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H362" s="38"/>
+      <c r="G362" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H362" s="38">
+        <v>1</v>
+      </c>
       <c r="I362" s="13"/>
       <c r="J362" s="11"/>
-      <c r="K362" s="20"/>
+      <c r="K362" s="48">
+        <v>42445</v>
+      </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="23">
-        <v>42705</v>
+        <v>42461</v>
       </c>
       <c r="B363" s="20"/>
       <c r="C363" s="13">
@@ -10049,7 +10362,7 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23">
-        <v>42736</v>
+        <v>42491</v>
       </c>
       <c r="B364" s="20"/>
       <c r="C364" s="13">
@@ -10069,7 +10382,7 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23">
-        <v>42767</v>
+        <v>42522</v>
       </c>
       <c r="B365" s="20"/>
       <c r="C365" s="13">
@@ -10089,7 +10402,7 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23">
-        <v>42795</v>
+        <v>42552</v>
       </c>
       <c r="B366" s="20"/>
       <c r="C366" s="13">
@@ -10109,7 +10422,7 @@
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23">
-        <v>42826</v>
+        <v>42583</v>
       </c>
       <c r="B367" s="20"/>
       <c r="C367" s="13">
@@ -10129,9 +10442,11 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23">
-        <v>42856</v>
-      </c>
-      <c r="B368" s="20"/>
+        <v>42614</v>
+      </c>
+      <c r="B368" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C368" s="13">
         <v>1.25</v>
       </c>
@@ -10142,16 +10457,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H368" s="38"/>
+      <c r="H368" s="38">
+        <v>1</v>
+      </c>
       <c r="I368" s="13"/>
       <c r="J368" s="11"/>
-      <c r="K368" s="20"/>
+      <c r="K368" s="48">
+        <v>42636</v>
+      </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23">
-        <v>42887</v>
-      </c>
-      <c r="B369" s="20"/>
+        <v>42644</v>
+      </c>
+      <c r="B369" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C369" s="13">
         <v>1.25</v>
       </c>
@@ -10162,14 +10483,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H369" s="38"/>
+      <c r="H369" s="38">
+        <v>2</v>
+      </c>
       <c r="I369" s="13"/>
       <c r="J369" s="11"/>
-      <c r="K369" s="20"/>
+      <c r="K369" s="20" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23">
-        <v>42917</v>
+        <v>42675</v>
       </c>
       <c r="B370" s="20"/>
       <c r="C370" s="13">
@@ -10189,13 +10514,17 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23">
-        <v>42948</v>
-      </c>
-      <c r="B371" s="20"/>
+        <v>42705</v>
+      </c>
+      <c r="B371" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C371" s="13">
         <v>1.25</v>
       </c>
-      <c r="D371" s="38"/>
+      <c r="D371" s="38">
+        <v>5</v>
+      </c>
       <c r="E371" s="13"/>
       <c r="F371" s="20"/>
       <c r="G371" s="13">
@@ -10208,19 +10537,17 @@
       <c r="K371" s="20"/>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A372" s="23">
-        <v>42979</v>
+      <c r="A372" s="47" t="s">
+        <v>309</v>
       </c>
       <c r="B372" s="20"/>
-      <c r="C372" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C372" s="13"/>
       <c r="D372" s="38"/>
       <c r="E372" s="13"/>
       <c r="F372" s="20"/>
-      <c r="G372" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G372" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H372" s="38"/>
       <c r="I372" s="13"/>
@@ -10229,7 +10556,7 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23">
-        <v>43009</v>
+        <v>42736</v>
       </c>
       <c r="B373" s="20"/>
       <c r="C373" s="13">
@@ -10249,9 +10576,11 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="23">
-        <v>43040</v>
-      </c>
-      <c r="B374" s="20"/>
+        <v>42767</v>
+      </c>
+      <c r="B374" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C374" s="13">
         <v>1.25</v>
       </c>
@@ -10265,13 +10594,17 @@
       <c r="H374" s="38"/>
       <c r="I374" s="13"/>
       <c r="J374" s="11"/>
-      <c r="K374" s="20"/>
+      <c r="K374" s="20" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23">
-        <v>43070</v>
-      </c>
-      <c r="B375" s="20"/>
+        <v>42795</v>
+      </c>
+      <c r="B375" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C375" s="13">
         <v>1.25</v>
       </c>
@@ -10285,20 +10618,24 @@
       <c r="H375" s="38"/>
       <c r="I375" s="13"/>
       <c r="J375" s="11"/>
-      <c r="K375" s="20"/>
+      <c r="K375" s="20" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A376" s="47" t="s">
-        <v>44</v>
+      <c r="A376" s="23">
+        <v>42826</v>
       </c>
       <c r="B376" s="20"/>
-      <c r="C376" s="13"/>
+      <c r="C376" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D376" s="38"/>
       <c r="E376" s="13"/>
       <c r="F376" s="20"/>
-      <c r="G376" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G376" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H376" s="38"/>
       <c r="I376" s="13"/>
@@ -10306,227 +10643,218 @@
       <c r="K376" s="20"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A377" s="39">
-        <v>43101</v>
-      </c>
-      <c r="B377" s="20" t="s">
-        <v>45</v>
-      </c>
+      <c r="A377" s="23">
+        <v>42856</v>
+      </c>
+      <c r="B377" s="20"/>
       <c r="C377" s="13">
         <v>1.25</v>
       </c>
       <c r="D377" s="38"/>
-      <c r="E377" s="9"/>
+      <c r="E377" s="13"/>
       <c r="F377" s="20"/>
       <c r="G377" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H377" s="38">
-        <v>1</v>
-      </c>
-      <c r="I377" s="9"/>
+      <c r="H377" s="38"/>
+      <c r="I377" s="13"/>
       <c r="J377" s="11"/>
-      <c r="K377" s="48">
-        <v>43131</v>
-      </c>
+      <c r="K377" s="20"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A378" s="39">
-        <v>43132</v>
+      <c r="A378" s="23">
+        <v>42887</v>
       </c>
       <c r="B378" s="20"/>
       <c r="C378" s="13">
         <v>1.25</v>
       </c>
       <c r="D378" s="38"/>
-      <c r="E378" s="9"/>
+      <c r="E378" s="13"/>
       <c r="F378" s="20"/>
       <c r="G378" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H378" s="38"/>
-      <c r="I378" s="9"/>
+      <c r="I378" s="13"/>
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A379" s="39">
-        <v>43160</v>
+      <c r="A379" s="23">
+        <v>42917</v>
       </c>
       <c r="B379" s="20"/>
       <c r="C379" s="13">
         <v>1.25</v>
       </c>
       <c r="D379" s="38"/>
-      <c r="E379" s="9"/>
+      <c r="E379" s="13"/>
       <c r="F379" s="20"/>
       <c r="G379" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H379" s="38"/>
-      <c r="I379" s="9"/>
+      <c r="I379" s="13"/>
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A380" s="39">
-        <v>43191</v>
+      <c r="A380" s="23">
+        <v>42948</v>
       </c>
       <c r="B380" s="20"/>
       <c r="C380" s="13">
         <v>1.25</v>
       </c>
       <c r="D380" s="38"/>
-      <c r="E380" s="9"/>
+      <c r="E380" s="13"/>
       <c r="F380" s="20"/>
       <c r="G380" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H380" s="38"/>
-      <c r="I380" s="9"/>
+      <c r="I380" s="13"/>
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A381" s="39">
-        <v>43221</v>
-      </c>
-      <c r="B381" s="20" t="s">
-        <v>45</v>
-      </c>
+      <c r="A381" s="23">
+        <v>42979</v>
+      </c>
+      <c r="B381" s="20"/>
       <c r="C381" s="13">
         <v>1.25</v>
       </c>
       <c r="D381" s="38"/>
-      <c r="E381" s="9"/>
+      <c r="E381" s="13"/>
       <c r="F381" s="20"/>
       <c r="G381" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H381" s="38">
-        <v>1</v>
-      </c>
-      <c r="I381" s="9"/>
+      <c r="H381" s="38"/>
+      <c r="I381" s="13"/>
       <c r="J381" s="11"/>
-      <c r="K381" s="48">
-        <v>43217</v>
-      </c>
+      <c r="K381" s="20"/>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A382" s="39"/>
+      <c r="A382" s="23">
+        <v>43009</v>
+      </c>
       <c r="B382" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C382" s="13"/>
+      <c r="C382" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D382" s="38"/>
-      <c r="E382" s="9"/>
+      <c r="E382" s="13"/>
       <c r="F382" s="20"/>
-      <c r="G382" s="13"/>
+      <c r="G382" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H382" s="38">
         <v>3</v>
       </c>
-      <c r="I382" s="9"/>
+      <c r="I382" s="13"/>
       <c r="J382" s="11"/>
       <c r="K382" s="20" t="s">
-        <v>47</v>
+        <v>311</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A383" s="39">
-        <v>43252</v>
-      </c>
-      <c r="B383" s="15"/>
-      <c r="C383" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D383" s="42"/>
-      <c r="E383" s="9"/>
-      <c r="F383" s="15"/>
-      <c r="G383" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H383" s="42"/>
-      <c r="I383" s="9"/>
-      <c r="J383" s="12"/>
-      <c r="K383" s="15"/>
+      <c r="A383" s="23"/>
+      <c r="B383" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C383" s="13"/>
+      <c r="D383" s="38">
+        <v>2</v>
+      </c>
+      <c r="E383" s="13"/>
+      <c r="F383" s="20"/>
+      <c r="G383" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H383" s="38"/>
+      <c r="I383" s="13"/>
+      <c r="J383" s="11"/>
+      <c r="K383" s="20" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A384" s="39">
-        <v>43282</v>
+      <c r="A384" s="23">
+        <v>43040</v>
       </c>
       <c r="B384" s="20"/>
       <c r="C384" s="13">
         <v>1.25</v>
       </c>
       <c r="D384" s="38"/>
-      <c r="E384" s="9"/>
+      <c r="E384" s="13"/>
       <c r="F384" s="20"/>
       <c r="G384" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H384" s="38"/>
-      <c r="I384" s="9"/>
+      <c r="I384" s="13"/>
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A385" s="39">
-        <v>43313</v>
-      </c>
-      <c r="B385" s="20" t="s">
-        <v>45</v>
-      </c>
+      <c r="A385" s="23">
+        <v>43070</v>
+      </c>
+      <c r="B385" s="20"/>
       <c r="C385" s="13">
         <v>1.25</v>
       </c>
       <c r="D385" s="38"/>
-      <c r="E385" s="9"/>
+      <c r="E385" s="13"/>
       <c r="F385" s="20"/>
       <c r="G385" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H385" s="38">
-        <v>1</v>
-      </c>
-      <c r="I385" s="9"/>
+      <c r="H385" s="38"/>
+      <c r="I385" s="13"/>
       <c r="J385" s="11"/>
-      <c r="K385" s="48">
-        <v>43319</v>
-      </c>
+      <c r="K385" s="20"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A386" s="39">
-        <v>43344</v>
+      <c r="A386" s="47" t="s">
+        <v>44</v>
       </c>
       <c r="B386" s="20"/>
-      <c r="C386" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C386" s="13"/>
       <c r="D386" s="38"/>
-      <c r="E386" s="9"/>
+      <c r="E386" s="13"/>
       <c r="F386" s="20"/>
-      <c r="G386" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G386" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H386" s="38"/>
-      <c r="I386" s="9"/>
+      <c r="I386" s="13"/>
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="39">
-        <v>43374</v>
-      </c>
-      <c r="B387" s="20"/>
+        <v>43101</v>
+      </c>
+      <c r="B387" s="20" t="s">
+        <v>314</v>
+      </c>
       <c r="C387" s="13">
         <v>1.25</v>
       </c>
@@ -10537,80 +10865,88 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H387" s="38"/>
+      <c r="H387" s="38">
+        <v>1</v>
+      </c>
       <c r="I387" s="9"/>
       <c r="J387" s="11"/>
-      <c r="K387" s="20"/>
+      <c r="K387" s="48">
+        <v>43374</v>
+      </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A388" s="39">
-        <v>43405</v>
-      </c>
-      <c r="B388" s="20"/>
-      <c r="C388" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A388" s="39"/>
+      <c r="B388" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C388" s="13"/>
       <c r="D388" s="38"/>
       <c r="E388" s="9"/>
       <c r="F388" s="20"/>
-      <c r="G388" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H388" s="38"/>
+      <c r="G388" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H388" s="38">
+        <v>1</v>
+      </c>
       <c r="I388" s="9"/>
       <c r="J388" s="11"/>
-      <c r="K388" s="20"/>
+      <c r="K388" s="48">
+        <v>43131</v>
+      </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A389" s="39">
-        <v>43435</v>
-      </c>
+      <c r="A389" s="39"/>
       <c r="B389" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C389" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D389" s="38">
-        <v>5</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C389" s="13"/>
+      <c r="D389" s="38"/>
       <c r="E389" s="9"/>
       <c r="F389" s="20"/>
-      <c r="G389" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G389" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H389" s="38"/>
       <c r="I389" s="9"/>
       <c r="J389" s="11"/>
       <c r="K389" s="20" t="s">
-        <v>49</v>
+        <v>329</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A390" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B390" s="20"/>
-      <c r="C390" s="13"/>
+      <c r="A390" s="39">
+        <v>43132</v>
+      </c>
+      <c r="B390" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C390" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D390" s="38"/>
       <c r="E390" s="9"/>
       <c r="F390" s="20"/>
-      <c r="G390" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G390" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H390" s="38"/>
       <c r="I390" s="9"/>
       <c r="J390" s="11"/>
-      <c r="K390" s="20"/>
+      <c r="K390" s="20" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="39">
-        <v>43466</v>
-      </c>
-      <c r="B391" s="20"/>
+        <v>43160</v>
+      </c>
+      <c r="B391" s="20" t="s">
+        <v>317</v>
+      </c>
       <c r="C391" s="13">
         <v>1.25</v>
       </c>
@@ -10623,80 +10959,83 @@
       </c>
       <c r="H391" s="38"/>
       <c r="I391" s="9"/>
-      <c r="J391" s="11"/>
-      <c r="K391" s="20"/>
+      <c r="J391" s="11">
+        <v>5</v>
+      </c>
+      <c r="K391" s="20" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A392" s="39">
-        <v>43497</v>
-      </c>
-      <c r="B392" s="20"/>
-      <c r="C392" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A392" s="39"/>
+      <c r="B392" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C392" s="13"/>
       <c r="D392" s="38"/>
       <c r="E392" s="9"/>
       <c r="F392" s="20"/>
-      <c r="G392" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G392" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H392" s="38"/>
       <c r="I392" s="9"/>
-      <c r="J392" s="11"/>
-      <c r="K392" s="20"/>
+      <c r="J392" s="11">
+        <v>2</v>
+      </c>
+      <c r="K392" s="20" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A393" s="39">
-        <v>43525</v>
-      </c>
-      <c r="B393" s="20"/>
+      <c r="A393" s="40">
+        <v>43191</v>
+      </c>
+      <c r="B393" s="15" t="s">
+        <v>315</v>
+      </c>
       <c r="C393" s="13">
         <v>1.25</v>
       </c>
-      <c r="D393" s="38"/>
+      <c r="D393" s="42"/>
       <c r="E393" s="9"/>
       <c r="F393" s="20"/>
-      <c r="G393" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H393" s="38"/>
+      <c r="G393" s="13"/>
+      <c r="H393" s="42"/>
       <c r="I393" s="9"/>
-      <c r="J393" s="11"/>
-      <c r="K393" s="20"/>
+      <c r="J393" s="12"/>
+      <c r="K393" s="65">
+        <v>43224</v>
+      </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A394" s="39">
-        <v>43556</v>
-      </c>
+      <c r="A394" s="39"/>
       <c r="B394" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C394" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D394" s="38"/>
+        <v>374</v>
+      </c>
+      <c r="C394" s="13"/>
+      <c r="D394" s="38">
+        <v>5</v>
+      </c>
       <c r="E394" s="9"/>
-      <c r="F394" s="20"/>
-      <c r="G394" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H394" s="38">
-        <v>1</v>
-      </c>
+      <c r="F394" s="15"/>
+      <c r="G394" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H394" s="38"/>
       <c r="I394" s="9"/>
       <c r="J394" s="11"/>
-      <c r="K394" s="48">
-        <v>43613</v>
-      </c>
+      <c r="K394" s="20"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="39">
-        <v>43586</v>
-      </c>
-      <c r="B395" s="20"/>
+        <v>43221</v>
+      </c>
+      <c r="B395" s="20" t="s">
+        <v>314</v>
+      </c>
       <c r="C395" s="13">
         <v>1.25</v>
       </c>
@@ -10707,102 +11046,108 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H395" s="38"/>
+      <c r="H395" s="38">
+        <v>1</v>
+      </c>
       <c r="I395" s="9"/>
       <c r="J395" s="11"/>
-      <c r="K395" s="20"/>
+      <c r="K395" s="20" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A396" s="39">
-        <v>43617</v>
-      </c>
-      <c r="B396" s="20"/>
-      <c r="C396" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A396" s="39"/>
+      <c r="B396" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C396" s="13"/>
       <c r="D396" s="38"/>
       <c r="E396" s="9"/>
       <c r="F396" s="20"/>
-      <c r="G396" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G396" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H396" s="38"/>
       <c r="I396" s="9"/>
       <c r="J396" s="11"/>
-      <c r="K396" s="20"/>
+      <c r="K396" s="20" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A397" s="39">
-        <v>43647</v>
-      </c>
-      <c r="B397" s="20"/>
-      <c r="C397" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A397" s="39"/>
+      <c r="B397" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C397" s="13"/>
       <c r="D397" s="38"/>
       <c r="E397" s="9"/>
       <c r="F397" s="20"/>
-      <c r="G397" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H397" s="38"/>
+      <c r="G397" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H397" s="38">
+        <v>1</v>
+      </c>
       <c r="I397" s="9"/>
       <c r="J397" s="11"/>
-      <c r="K397" s="20"/>
+      <c r="K397" s="66">
+        <v>43217</v>
+      </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A398" s="39">
-        <v>43678</v>
-      </c>
-      <c r="B398" s="20"/>
-      <c r="C398" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A398" s="39"/>
+      <c r="B398" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C398" s="13"/>
       <c r="D398" s="38"/>
       <c r="E398" s="9"/>
       <c r="F398" s="20"/>
-      <c r="G398" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H398" s="38"/>
+      <c r="G398" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H398" s="38">
+        <v>3</v>
+      </c>
       <c r="I398" s="9"/>
       <c r="J398" s="11"/>
-      <c r="K398" s="20"/>
+      <c r="K398" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A399" s="39">
-        <v>43709</v>
-      </c>
+      <c r="A399" s="39"/>
       <c r="B399" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C399" s="13">
-        <v>1.25</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="C399" s="13"/>
       <c r="D399" s="38"/>
       <c r="E399" s="9"/>
       <c r="F399" s="20"/>
-      <c r="G399" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G399" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H399" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I399" s="9"/>
       <c r="J399" s="11"/>
-      <c r="K399" s="20" t="s">
-        <v>53</v>
+      <c r="K399" s="48">
+        <v>43106</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="39">
-        <v>43739</v>
-      </c>
-      <c r="B400" s="20"/>
+        <v>43252</v>
+      </c>
+      <c r="B400" s="20" t="s">
+        <v>316</v>
+      </c>
       <c r="C400" s="13">
         <v>1.25</v>
       </c>
@@ -10813,17 +11158,21 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H400" s="38"/>
+      <c r="H400" s="38">
+        <v>2</v>
+      </c>
       <c r="I400" s="9"/>
       <c r="J400" s="11"/>
-      <c r="K400" s="20"/>
+      <c r="K400" s="20" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="39">
-        <v>43770</v>
+        <v>43282</v>
       </c>
       <c r="B401" s="20" t="s">
-        <v>55</v>
+        <v>314</v>
       </c>
       <c r="C401" s="13">
         <v>1.25</v>
@@ -10836,86 +11185,90 @@
         <v>1.25</v>
       </c>
       <c r="H401" s="38">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I401" s="9"/>
       <c r="J401" s="11"/>
-      <c r="K401" s="20" t="s">
-        <v>54</v>
+      <c r="K401" s="48">
+        <v>43258</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A402" s="39">
-        <v>43800</v>
-      </c>
+      <c r="A402" s="39"/>
       <c r="B402" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C402" s="13">
-        <v>1.25</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C402" s="13"/>
       <c r="D402" s="38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E402" s="9"/>
       <c r="F402" s="20"/>
-      <c r="G402" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G402" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H402" s="38"/>
       <c r="I402" s="9"/>
       <c r="J402" s="11"/>
-      <c r="K402" s="20"/>
+      <c r="K402" s="20" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A403" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B403" s="20"/>
-      <c r="C403" s="13"/>
-      <c r="D403" s="38"/>
+      <c r="A403" s="39">
+        <v>43313</v>
+      </c>
+      <c r="B403" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C403" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D403" s="38">
+        <v>1</v>
+      </c>
       <c r="E403" s="9"/>
       <c r="F403" s="20"/>
-      <c r="G403" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G403" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H403" s="38"/>
       <c r="I403" s="9"/>
       <c r="J403" s="11"/>
-      <c r="K403" s="20"/>
+      <c r="K403" s="48">
+        <v>43381</v>
+      </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A404" s="39">
-        <v>43831</v>
-      </c>
+      <c r="A404" s="39"/>
       <c r="B404" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C404" s="13">
-        <v>1.25</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C404" s="13"/>
       <c r="D404" s="38"/>
       <c r="E404" s="9"/>
       <c r="F404" s="20"/>
-      <c r="G404" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H404" s="38"/>
+      <c r="G404" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H404" s="38">
+        <v>1</v>
+      </c>
       <c r="I404" s="9"/>
       <c r="J404" s="11"/>
-      <c r="K404" s="20" t="s">
-        <v>58</v>
+      <c r="K404" s="66">
+        <v>43319</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="39">
-        <v>43862</v>
+        <v>43344</v>
       </c>
       <c r="B405" s="20" t="s">
-        <v>57</v>
+        <v>314</v>
       </c>
       <c r="C405" s="13">
         <v>1.25</v>
@@ -10928,19 +11281,21 @@
         <v>1.25</v>
       </c>
       <c r="H405" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I405" s="9"/>
       <c r="J405" s="11"/>
       <c r="K405" s="20" t="s">
-        <v>59</v>
+        <v>337</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="39">
-        <v>43891</v>
-      </c>
-      <c r="B406" s="20"/>
+        <v>43374</v>
+      </c>
+      <c r="B406" s="20" t="s">
+        <v>314</v>
+      </c>
       <c r="C406" s="13">
         <v>1.25</v>
       </c>
@@ -10951,96 +11306,116 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H406" s="38"/>
+      <c r="H406" s="38">
+        <v>1</v>
+      </c>
       <c r="I406" s="9"/>
       <c r="J406" s="11"/>
-      <c r="K406" s="20"/>
+      <c r="K406" s="20" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A407" s="39">
-        <v>43922</v>
-      </c>
-      <c r="B407" s="20"/>
-      <c r="C407" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D407" s="38"/>
+      <c r="A407" s="39"/>
+      <c r="B407" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="C407" s="13"/>
+      <c r="D407" s="38">
+        <v>1</v>
+      </c>
       <c r="E407" s="9"/>
       <c r="F407" s="20"/>
-      <c r="G407" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G407" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H407" s="38"/>
       <c r="I407" s="9"/>
       <c r="J407" s="11"/>
-      <c r="K407" s="20"/>
+      <c r="K407" s="48">
+        <v>43231</v>
+      </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="39">
-        <v>43952</v>
-      </c>
-      <c r="B408" s="20"/>
+        <v>43405</v>
+      </c>
+      <c r="B408" s="20" t="s">
+        <v>314</v>
+      </c>
       <c r="C408" s="13">
         <v>1.25</v>
       </c>
-      <c r="D408" s="38"/>
+      <c r="D408" s="38">
+        <v>1</v>
+      </c>
       <c r="E408" s="9"/>
       <c r="F408" s="20"/>
       <c r="G408" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H408" s="38"/>
+      <c r="H408" s="38">
+        <v>1</v>
+      </c>
       <c r="I408" s="9"/>
       <c r="J408" s="11"/>
-      <c r="K408" s="20"/>
+      <c r="K408" s="48">
+        <v>43354</v>
+      </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A409" s="39">
-        <v>43983</v>
-      </c>
-      <c r="B409" s="20"/>
-      <c r="C409" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A409" s="39"/>
+      <c r="B409" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C409" s="13"/>
       <c r="D409" s="38"/>
       <c r="E409" s="9"/>
       <c r="F409" s="20"/>
-      <c r="G409" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H409" s="38"/>
+      <c r="G409" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H409" s="38">
+        <v>1</v>
+      </c>
       <c r="I409" s="9"/>
       <c r="J409" s="11"/>
-      <c r="K409" s="20"/>
+      <c r="K409" s="48" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A410" s="39">
-        <v>44013</v>
-      </c>
-      <c r="B410" s="20"/>
-      <c r="C410" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D410" s="38"/>
+      <c r="A410" s="39"/>
+      <c r="B410" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C410" s="13"/>
+      <c r="D410" s="38">
+        <v>1</v>
+      </c>
       <c r="E410" s="9"/>
       <c r="F410" s="20"/>
-      <c r="G410" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G410" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H410" s="38"/>
       <c r="I410" s="9"/>
       <c r="J410" s="11"/>
-      <c r="K410" s="20"/>
+      <c r="K410" s="48" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="39">
-        <v>44044</v>
-      </c>
-      <c r="B411" s="20"/>
+        <v>43435</v>
+      </c>
+      <c r="B411" s="20" t="s">
+        <v>314</v>
+      </c>
       <c r="C411" s="13">
         <v>1.25</v>
       </c>
@@ -11051,45 +11426,49 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H411" s="38"/>
+      <c r="H411" s="38">
+        <v>1</v>
+      </c>
       <c r="I411" s="9"/>
       <c r="J411" s="11"/>
-      <c r="K411" s="20"/>
+      <c r="K411" s="48">
+        <v>43293</v>
+      </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A412" s="39">
-        <v>44075</v>
-      </c>
-      <c r="B412" s="20"/>
-      <c r="C412" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D412" s="38"/>
+      <c r="A412" s="39"/>
+      <c r="B412" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C412" s="13"/>
+      <c r="D412" s="38">
+        <v>5</v>
+      </c>
       <c r="E412" s="9"/>
       <c r="F412" s="20"/>
-      <c r="G412" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G412" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H412" s="38"/>
       <c r="I412" s="9"/>
       <c r="J412" s="11"/>
-      <c r="K412" s="20"/>
+      <c r="K412" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A413" s="39">
-        <v>44105</v>
+      <c r="A413" s="47" t="s">
+        <v>50</v>
       </c>
       <c r="B413" s="20"/>
-      <c r="C413" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C413" s="13"/>
       <c r="D413" s="38"/>
       <c r="E413" s="9"/>
       <c r="F413" s="20"/>
-      <c r="G413" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G413" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H413" s="38"/>
       <c r="I413" s="9"/>
@@ -11098,55 +11477,63 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="39">
-        <v>44136</v>
-      </c>
-      <c r="B414" s="20"/>
+        <v>43466</v>
+      </c>
+      <c r="B414" s="20" t="s">
+        <v>316</v>
+      </c>
       <c r="C414" s="13">
         <v>1.25</v>
       </c>
-      <c r="D414" s="38"/>
+      <c r="D414" s="38">
+        <v>0.5</v>
+      </c>
       <c r="E414" s="9"/>
       <c r="F414" s="20"/>
       <c r="G414" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H414" s="38"/>
+      <c r="H414" s="38">
+        <v>1.5</v>
+      </c>
       <c r="I414" s="9"/>
       <c r="J414" s="11"/>
-      <c r="K414" s="20"/>
+      <c r="K414" s="20" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A415" s="39">
-        <v>44166</v>
-      </c>
+      <c r="A415" s="39"/>
       <c r="B415" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C415" s="13">
-        <v>1.25</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="C415" s="13"/>
       <c r="D415" s="38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E415" s="9"/>
       <c r="F415" s="20"/>
-      <c r="G415" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G415" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H415" s="38"/>
       <c r="I415" s="9"/>
       <c r="J415" s="11"/>
-      <c r="K415" s="20"/>
+      <c r="K415" s="48">
+        <v>43739</v>
+      </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A416" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B416" s="20"/>
+      <c r="A416" s="39"/>
+      <c r="B416" s="20" t="s">
+        <v>319</v>
+      </c>
       <c r="C416" s="13"/>
-      <c r="D416" s="38"/>
+      <c r="D416" s="38">
+        <v>1</v>
+      </c>
       <c r="E416" s="9"/>
       <c r="F416" s="20"/>
       <c r="G416" s="13" t="str">
@@ -11156,33 +11543,39 @@
       <c r="H416" s="38"/>
       <c r="I416" s="9"/>
       <c r="J416" s="11"/>
-      <c r="K416" s="20"/>
+      <c r="K416" s="20" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A417" s="39">
-        <v>44197</v>
-      </c>
-      <c r="B417" s="20"/>
-      <c r="C417" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D417" s="38"/>
+      <c r="A417" s="39"/>
+      <c r="B417" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C417" s="13"/>
+      <c r="D417" s="38">
+        <v>1</v>
+      </c>
       <c r="E417" s="9"/>
       <c r="F417" s="20"/>
-      <c r="G417" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G417" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H417" s="38"/>
       <c r="I417" s="9"/>
       <c r="J417" s="11"/>
-      <c r="K417" s="20"/>
+      <c r="K417" s="20" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="39">
-        <v>44228</v>
-      </c>
-      <c r="B418" s="20"/>
+        <v>43497</v>
+      </c>
+      <c r="B418" s="20" t="s">
+        <v>314</v>
+      </c>
       <c r="C418" s="13">
         <v>1.25</v>
       </c>
@@ -11193,25 +11586,27 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H418" s="38"/>
+      <c r="H418" s="38">
+        <v>1</v>
+      </c>
       <c r="I418" s="9"/>
       <c r="J418" s="11"/>
-      <c r="K418" s="20"/>
+      <c r="K418" s="48">
+        <v>43557</v>
+      </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A419" s="39">
-        <v>44256</v>
-      </c>
-      <c r="B419" s="20"/>
-      <c r="C419" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A419" s="39"/>
+      <c r="B419" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="C419" s="13"/>
       <c r="D419" s="38"/>
       <c r="E419" s="9"/>
       <c r="F419" s="20"/>
-      <c r="G419" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G419" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H419" s="38"/>
       <c r="I419" s="9"/>
@@ -11219,39 +11614,43 @@
       <c r="K419" s="20"/>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A420" s="39">
-        <v>44287</v>
-      </c>
-      <c r="B420" s="20"/>
-      <c r="C420" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D420" s="38"/>
+      <c r="A420" s="39"/>
+      <c r="B420" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C420" s="13"/>
+      <c r="D420" s="38">
+        <v>0.5</v>
+      </c>
       <c r="E420" s="9"/>
       <c r="F420" s="20"/>
-      <c r="G420" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H420" s="38"/>
+      <c r="G420" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H420" s="38">
+        <v>0.5</v>
+      </c>
       <c r="I420" s="9"/>
       <c r="J420" s="11"/>
-      <c r="K420" s="20"/>
+      <c r="K420" s="20" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A421" s="39">
-        <v>44317</v>
-      </c>
-      <c r="B421" s="20"/>
-      <c r="C421" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D421" s="38"/>
+      <c r="A421" s="39"/>
+      <c r="B421" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C421" s="13"/>
+      <c r="D421" s="38">
+        <v>1</v>
+      </c>
       <c r="E421" s="9"/>
       <c r="F421" s="20"/>
-      <c r="G421" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G421" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H421" s="38"/>
       <c r="I421" s="9"/>
@@ -11260,10 +11659,10 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="39">
-        <v>44348</v>
+        <v>43525</v>
       </c>
       <c r="B422" s="20" t="s">
-        <v>61</v>
+        <v>314</v>
       </c>
       <c r="C422" s="13">
         <v>1.25</v>
@@ -11276,161 +11675,181 @@
         <v>1.25</v>
       </c>
       <c r="H422" s="38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I422" s="9"/>
       <c r="J422" s="11"/>
-      <c r="K422" s="20" t="s">
-        <v>62</v>
+      <c r="K422" s="48">
+        <v>43558</v>
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A423" s="39">
-        <v>44378</v>
-      </c>
-      <c r="B423" s="20"/>
-      <c r="C423" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D423" s="38"/>
+      <c r="A423" s="39"/>
+      <c r="B423" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C423" s="13"/>
+      <c r="D423" s="38">
+        <v>0.5</v>
+      </c>
       <c r="E423" s="9"/>
       <c r="F423" s="20"/>
-      <c r="G423" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H423" s="38"/>
+      <c r="G423" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H423" s="38">
+        <v>0.5</v>
+      </c>
       <c r="I423" s="9"/>
       <c r="J423" s="11"/>
-      <c r="K423" s="20"/>
+      <c r="K423" s="48">
+        <v>43772</v>
+      </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A424" s="39">
-        <v>44409</v>
-      </c>
-      <c r="B424" s="20"/>
-      <c r="C424" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A424" s="39"/>
+      <c r="B424" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="C424" s="13"/>
       <c r="D424" s="38"/>
       <c r="E424" s="9"/>
       <c r="F424" s="20"/>
-      <c r="G424" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G424" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H424" s="38"/>
       <c r="I424" s="9"/>
       <c r="J424" s="11"/>
-      <c r="K424" s="20"/>
+      <c r="K424" s="20" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A425" s="39">
-        <v>44440</v>
-      </c>
-      <c r="B425" s="20"/>
-      <c r="C425" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A425" s="39"/>
+      <c r="B425" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C425" s="13"/>
       <c r="D425" s="38"/>
       <c r="E425" s="9"/>
       <c r="F425" s="20"/>
-      <c r="G425" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G425" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H425" s="38"/>
       <c r="I425" s="9"/>
       <c r="J425" s="11"/>
-      <c r="K425" s="20"/>
+      <c r="K425" s="20" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A426" s="39">
-        <v>44470</v>
-      </c>
-      <c r="B426" s="20"/>
-      <c r="C426" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D426" s="38"/>
+      <c r="A426" s="39"/>
+      <c r="B426" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C426" s="13"/>
+      <c r="D426" s="38">
+        <v>1</v>
+      </c>
       <c r="E426" s="9"/>
       <c r="F426" s="20"/>
-      <c r="G426" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G426" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H426" s="38"/>
       <c r="I426" s="9"/>
       <c r="J426" s="11"/>
-      <c r="K426" s="20"/>
+      <c r="K426" s="20" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A427" s="39">
-        <v>44501</v>
-      </c>
-      <c r="B427" s="20"/>
-      <c r="C427" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D427" s="38"/>
+      <c r="A427" s="39"/>
+      <c r="B427" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="C427" s="13"/>
+      <c r="D427" s="38">
+        <v>1</v>
+      </c>
       <c r="E427" s="9"/>
       <c r="F427" s="20"/>
-      <c r="G427" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G427" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H427" s="38"/>
       <c r="I427" s="9"/>
       <c r="J427" s="11"/>
-      <c r="K427" s="20"/>
+      <c r="K427" s="20" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A428" s="39">
-        <v>44531</v>
-      </c>
+      <c r="A428" s="39"/>
       <c r="B428" s="20"/>
-      <c r="C428" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D428" s="38"/>
+      <c r="C428" s="13"/>
+      <c r="D428" s="38">
+        <v>2</v>
+      </c>
       <c r="E428" s="9"/>
       <c r="F428" s="20"/>
-      <c r="G428" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G428" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H428" s="38"/>
       <c r="I428" s="9"/>
       <c r="J428" s="11"/>
-      <c r="K428" s="20"/>
+      <c r="K428" s="20" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A429" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B429" s="20"/>
-      <c r="C429" s="13"/>
+      <c r="A429" s="39">
+        <v>43556</v>
+      </c>
+      <c r="B429" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C429" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D429" s="38"/>
       <c r="E429" s="9"/>
       <c r="F429" s="20"/>
-      <c r="G429" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H429" s="38"/>
+      <c r="G429" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H429" s="38">
+        <v>1</v>
+      </c>
       <c r="I429" s="9"/>
       <c r="J429" s="11"/>
-      <c r="K429" s="20"/>
+      <c r="K429" s="66">
+        <v>43613</v>
+      </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="39">
-        <v>44562</v>
-      </c>
-      <c r="B430" s="20"/>
+        <v>43586</v>
+      </c>
+      <c r="B430" s="20" t="s">
+        <v>318</v>
+      </c>
       <c r="C430" s="13">
         <v>1.25</v>
       </c>
-      <c r="D430" s="38"/>
+      <c r="D430" s="38">
+        <v>1</v>
+      </c>
       <c r="E430" s="9"/>
       <c r="F430" s="20"/>
       <c r="G430" s="13">
@@ -11440,171 +11859,175 @@
       <c r="H430" s="38"/>
       <c r="I430" s="9"/>
       <c r="J430" s="11"/>
-      <c r="K430" s="20"/>
+      <c r="K430" s="20" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="39">
-        <v>44593</v>
+        <v>43617</v>
       </c>
       <c r="B431" s="20"/>
-      <c r="C431" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C431" s="13"/>
       <c r="D431" s="38"/>
       <c r="E431" s="9"/>
       <c r="F431" s="20"/>
-      <c r="G431" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G431" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H431" s="38"/>
       <c r="I431" s="9"/>
-      <c r="J431" s="11"/>
-      <c r="K431" s="20"/>
+      <c r="J431" s="11">
+        <v>1</v>
+      </c>
+      <c r="K431" s="20" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A432" s="39">
-        <v>44621</v>
-      </c>
+      <c r="A432" s="39"/>
       <c r="B432" s="20"/>
-      <c r="C432" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C432" s="13"/>
       <c r="D432" s="38"/>
       <c r="E432" s="9"/>
       <c r="F432" s="20"/>
-      <c r="G432" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G432" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H432" s="38"/>
       <c r="I432" s="9"/>
-      <c r="J432" s="11"/>
-      <c r="K432" s="20"/>
+      <c r="J432" s="11">
+        <v>2</v>
+      </c>
+      <c r="K432" s="20" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A433" s="39">
-        <v>44652</v>
-      </c>
+      <c r="A433" s="39"/>
       <c r="B433" s="20"/>
-      <c r="C433" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C433" s="13"/>
       <c r="D433" s="38"/>
       <c r="E433" s="9"/>
       <c r="F433" s="20"/>
-      <c r="G433" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G433" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H433" s="38"/>
       <c r="I433" s="9"/>
-      <c r="J433" s="11"/>
-      <c r="K433" s="20"/>
+      <c r="J433" s="11">
+        <v>2</v>
+      </c>
+      <c r="K433" s="20" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A434" s="39">
-        <v>44682</v>
-      </c>
+      <c r="A434" s="39"/>
       <c r="B434" s="20"/>
-      <c r="C434" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C434" s="13"/>
       <c r="D434" s="38"/>
       <c r="E434" s="9"/>
       <c r="F434" s="20"/>
-      <c r="G434" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G434" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H434" s="38"/>
       <c r="I434" s="9"/>
-      <c r="J434" s="11"/>
-      <c r="K434" s="20"/>
+      <c r="J434" s="11">
+        <v>2</v>
+      </c>
+      <c r="K434" s="20" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A435" s="39">
-        <v>44713</v>
-      </c>
+      <c r="A435" s="39"/>
       <c r="B435" s="20"/>
-      <c r="C435" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C435" s="13"/>
       <c r="D435" s="38"/>
       <c r="E435" s="9"/>
       <c r="F435" s="20"/>
-      <c r="G435" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G435" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H435" s="38"/>
       <c r="I435" s="9"/>
-      <c r="J435" s="11"/>
-      <c r="K435" s="20"/>
+      <c r="J435" s="11">
+        <v>1</v>
+      </c>
+      <c r="K435" s="48">
+        <v>43776</v>
+      </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A436" s="39">
-        <v>44743</v>
-      </c>
+      <c r="A436" s="39"/>
       <c r="B436" s="20"/>
-      <c r="C436" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C436" s="13"/>
       <c r="D436" s="38"/>
       <c r="E436" s="9"/>
       <c r="F436" s="20"/>
-      <c r="G436" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G436" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H436" s="38"/>
       <c r="I436" s="9"/>
-      <c r="J436" s="11"/>
-      <c r="K436" s="20"/>
+      <c r="J436" s="11">
+        <v>2</v>
+      </c>
+      <c r="K436" s="20" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A437" s="39">
-        <v>44774</v>
-      </c>
+      <c r="A437" s="39"/>
       <c r="B437" s="20"/>
-      <c r="C437" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C437" s="13"/>
       <c r="D437" s="38"/>
       <c r="E437" s="9"/>
       <c r="F437" s="20"/>
-      <c r="G437" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G437" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H437" s="38"/>
       <c r="I437" s="9"/>
-      <c r="J437" s="11"/>
-      <c r="K437" s="20"/>
+      <c r="J437" s="11">
+        <v>1</v>
+      </c>
+      <c r="K437" s="48">
+        <v>43593</v>
+      </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A438" s="39">
-        <v>44805</v>
-      </c>
+      <c r="A438" s="39"/>
       <c r="B438" s="20"/>
-      <c r="C438" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C438" s="13"/>
       <c r="D438" s="38"/>
       <c r="E438" s="9"/>
       <c r="F438" s="20"/>
-      <c r="G438" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G438" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H438" s="38"/>
       <c r="I438" s="9"/>
-      <c r="J438" s="11"/>
-      <c r="K438" s="20"/>
+      <c r="J438" s="11">
+        <v>3</v>
+      </c>
+      <c r="K438" s="20" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="39">
-        <v>44835</v>
+        <v>43647</v>
       </c>
       <c r="B439" s="20"/>
       <c r="C439" s="13">
@@ -11623,15 +12046,19 @@
       <c r="K439" s="20"/>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A440" s="39"/>
+      <c r="A440" s="39">
+        <v>43678</v>
+      </c>
       <c r="B440" s="20"/>
-      <c r="C440" s="13"/>
+      <c r="C440" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D440" s="38"/>
       <c r="E440" s="9"/>
       <c r="F440" s="20"/>
-      <c r="G440" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G440" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H440" s="38"/>
       <c r="I440" s="9"/>
@@ -11639,40 +12066,62 @@
       <c r="K440" s="20"/>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A441" s="39"/>
-      <c r="B441" s="20"/>
-      <c r="C441" s="13"/>
+      <c r="A441" s="39">
+        <v>43709</v>
+      </c>
+      <c r="B441" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C441" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D441" s="38"/>
       <c r="E441" s="9"/>
       <c r="F441" s="20"/>
-      <c r="G441" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H441" s="38"/>
+      <c r="G441" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H441" s="38">
+        <v>2</v>
+      </c>
       <c r="I441" s="9"/>
       <c r="J441" s="11"/>
-      <c r="K441" s="20"/>
+      <c r="K441" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A442" s="39"/>
-      <c r="B442" s="20"/>
-      <c r="C442" s="13"/>
+      <c r="A442" s="39">
+        <v>43739</v>
+      </c>
+      <c r="B442" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C442" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D442" s="38"/>
       <c r="E442" s="9"/>
       <c r="F442" s="20"/>
-      <c r="G442" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H442" s="38"/>
+      <c r="G442" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H442" s="38">
+        <v>1</v>
+      </c>
       <c r="I442" s="9"/>
       <c r="J442" s="11"/>
-      <c r="K442" s="20"/>
+      <c r="K442" s="48">
+        <v>43739</v>
+      </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="39"/>
-      <c r="B443" s="20"/>
+      <c r="B443" s="20" t="s">
+        <v>316</v>
+      </c>
       <c r="C443" s="13"/>
       <c r="D443" s="38"/>
       <c r="E443" s="9"/>
@@ -11681,32 +12130,50 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H443" s="38"/>
+      <c r="H443" s="38">
+        <v>2</v>
+      </c>
       <c r="I443" s="9"/>
       <c r="J443" s="11"/>
-      <c r="K443" s="20"/>
+      <c r="K443" s="20" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A444" s="39"/>
-      <c r="B444" s="20"/>
-      <c r="C444" s="13"/>
+      <c r="A444" s="39">
+        <v>43770</v>
+      </c>
+      <c r="B444" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C444" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D444" s="38"/>
       <c r="E444" s="9"/>
       <c r="F444" s="20"/>
-      <c r="G444" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H444" s="38"/>
+      <c r="G444" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H444" s="38">
+        <v>1</v>
+      </c>
       <c r="I444" s="9"/>
       <c r="J444" s="11"/>
-      <c r="K444" s="20"/>
+      <c r="K444" s="20" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="39"/>
-      <c r="B445" s="20"/>
+      <c r="B445" s="20" t="s">
+        <v>325</v>
+      </c>
       <c r="C445" s="13"/>
-      <c r="D445" s="38"/>
+      <c r="D445" s="38">
+        <v>1</v>
+      </c>
       <c r="E445" s="9"/>
       <c r="F445" s="20"/>
       <c r="G445" s="13" t="str">
@@ -11716,11 +12183,15 @@
       <c r="H445" s="38"/>
       <c r="I445" s="9"/>
       <c r="J445" s="11"/>
-      <c r="K445" s="20"/>
+      <c r="K445" s="20" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="39"/>
-      <c r="B446" s="20"/>
+      <c r="B446" s="20" t="s">
+        <v>314</v>
+      </c>
       <c r="C446" s="13"/>
       <c r="D446" s="38"/>
       <c r="E446" s="9"/>
@@ -11729,16 +12200,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H446" s="38"/>
+      <c r="H446" s="38">
+        <v>1</v>
+      </c>
       <c r="I446" s="9"/>
       <c r="J446" s="11"/>
-      <c r="K446" s="20"/>
+      <c r="K446" s="20" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="39"/>
-      <c r="B447" s="20"/>
+      <c r="B447" s="20" t="s">
+        <v>325</v>
+      </c>
       <c r="C447" s="13"/>
-      <c r="D447" s="38"/>
+      <c r="D447" s="38">
+        <v>1</v>
+      </c>
       <c r="E447" s="9"/>
       <c r="F447" s="20"/>
       <c r="G447" s="13" t="str">
@@ -11748,11 +12227,15 @@
       <c r="H447" s="38"/>
       <c r="I447" s="9"/>
       <c r="J447" s="11"/>
-      <c r="K447" s="20"/>
+      <c r="K447" s="20" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="39"/>
-      <c r="B448" s="20"/>
+      <c r="B448" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C448" s="13"/>
       <c r="D448" s="38"/>
       <c r="E448" s="9"/>
@@ -11761,21 +12244,29 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H448" s="38"/>
+      <c r="H448" s="38">
+        <v>30</v>
+      </c>
       <c r="I448" s="9"/>
       <c r="J448" s="11"/>
-      <c r="K448" s="20"/>
+      <c r="K448" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A449" s="39"/>
+      <c r="A449" s="39">
+        <v>43800</v>
+      </c>
       <c r="B449" s="20"/>
-      <c r="C449" s="13"/>
+      <c r="C449" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D449" s="38"/>
       <c r="E449" s="9"/>
       <c r="F449" s="20"/>
-      <c r="G449" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G449" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H449" s="38"/>
       <c r="I449" s="9"/>
@@ -11783,7 +12274,9 @@
       <c r="K449" s="20"/>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A450" s="39"/>
+      <c r="A450" s="23" t="s">
+        <v>326</v>
+      </c>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
       <c r="D450" s="38"/>
@@ -11799,24 +12292,36 @@
       <c r="K450" s="20"/>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A451" s="39"/>
-      <c r="B451" s="20"/>
-      <c r="C451" s="13"/>
-      <c r="D451" s="38"/>
+      <c r="A451" s="39">
+        <v>43831</v>
+      </c>
+      <c r="B451" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="C451" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D451" s="38">
+        <v>1</v>
+      </c>
       <c r="E451" s="9"/>
       <c r="F451" s="20"/>
-      <c r="G451" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G451" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H451" s="38"/>
       <c r="I451" s="9"/>
       <c r="J451" s="11"/>
-      <c r="K451" s="20"/>
+      <c r="K451" s="48">
+        <v>43983</v>
+      </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="39"/>
-      <c r="B452" s="20"/>
+      <c r="B452" s="20" t="s">
+        <v>327</v>
+      </c>
       <c r="C452" s="13"/>
       <c r="D452" s="38"/>
       <c r="E452" s="9"/>
@@ -11828,13 +12333,19 @@
       <c r="H452" s="38"/>
       <c r="I452" s="9"/>
       <c r="J452" s="11"/>
-      <c r="K452" s="20"/>
+      <c r="K452" s="20" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="39"/>
-      <c r="B453" s="20"/>
+      <c r="B453" s="20" t="s">
+        <v>376</v>
+      </c>
       <c r="C453" s="13"/>
-      <c r="D453" s="38"/>
+      <c r="D453" s="38">
+        <v>4</v>
+      </c>
       <c r="E453" s="9"/>
       <c r="F453" s="20"/>
       <c r="G453" s="13" t="str">
@@ -11844,11 +12355,15 @@
       <c r="H453" s="38"/>
       <c r="I453" s="9"/>
       <c r="J453" s="11"/>
-      <c r="K453" s="20"/>
+      <c r="K453" s="20" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="39"/>
-      <c r="B454" s="20"/>
+      <c r="B454" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C454" s="13"/>
       <c r="D454" s="38"/>
       <c r="E454" s="9"/>
@@ -11857,30 +12372,46 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H454" s="38"/>
+      <c r="H454" s="38">
+        <v>2</v>
+      </c>
       <c r="I454" s="9"/>
       <c r="J454" s="11"/>
-      <c r="K454" s="20"/>
+      <c r="K454" s="11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A455" s="39"/>
-      <c r="B455" s="20"/>
-      <c r="C455" s="13"/>
+      <c r="A455" s="39">
+        <v>43862</v>
+      </c>
+      <c r="B455" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C455" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D455" s="38"/>
       <c r="E455" s="9"/>
       <c r="F455" s="20"/>
-      <c r="G455" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H455" s="38"/>
+      <c r="G455" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H455" s="38">
+        <v>2</v>
+      </c>
       <c r="I455" s="9"/>
       <c r="J455" s="11"/>
-      <c r="K455" s="20"/>
+      <c r="K455" s="20" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="39"/>
-      <c r="B456" s="20"/>
+      <c r="B456" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C456" s="13"/>
       <c r="D456" s="38"/>
       <c r="E456" s="9"/>
@@ -11889,21 +12420,29 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H456" s="38"/>
+      <c r="H456" s="38">
+        <v>2</v>
+      </c>
       <c r="I456" s="9"/>
       <c r="J456" s="11"/>
-      <c r="K456" s="20"/>
+      <c r="K456" s="11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A457" s="39"/>
+      <c r="A457" s="39">
+        <v>43891</v>
+      </c>
       <c r="B457" s="20"/>
-      <c r="C457" s="13"/>
+      <c r="C457" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D457" s="38"/>
       <c r="E457" s="9"/>
       <c r="F457" s="20"/>
-      <c r="G457" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G457" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H457" s="38"/>
       <c r="I457" s="9"/>
@@ -11911,15 +12450,19 @@
       <c r="K457" s="20"/>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A458" s="39"/>
+      <c r="A458" s="39">
+        <v>43922</v>
+      </c>
       <c r="B458" s="20"/>
-      <c r="C458" s="13"/>
+      <c r="C458" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D458" s="38"/>
       <c r="E458" s="9"/>
       <c r="F458" s="20"/>
-      <c r="G458" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G458" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H458" s="38"/>
       <c r="I458" s="9"/>
@@ -11927,15 +12470,19 @@
       <c r="K458" s="20"/>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A459" s="39"/>
+      <c r="A459" s="39">
+        <v>43952</v>
+      </c>
       <c r="B459" s="20"/>
-      <c r="C459" s="13"/>
+      <c r="C459" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D459" s="38"/>
       <c r="E459" s="9"/>
       <c r="F459" s="20"/>
-      <c r="G459" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G459" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H459" s="38"/>
       <c r="I459" s="9"/>
@@ -11943,26 +12490,40 @@
       <c r="K459" s="20"/>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A460" s="39"/>
-      <c r="B460" s="20"/>
-      <c r="C460" s="13"/>
+      <c r="A460" s="39">
+        <v>43983</v>
+      </c>
+      <c r="B460" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C460" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D460" s="38"/>
       <c r="E460" s="9"/>
       <c r="F460" s="20"/>
-      <c r="G460" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H460" s="38"/>
+      <c r="G460" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H460" s="38">
+        <v>2</v>
+      </c>
       <c r="I460" s="9"/>
       <c r="J460" s="11"/>
-      <c r="K460" s="20"/>
+      <c r="K460" s="20" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="39"/>
-      <c r="B461" s="20"/>
+      <c r="B461" s="20" t="s">
+        <v>324</v>
+      </c>
       <c r="C461" s="13"/>
-      <c r="D461" s="38"/>
+      <c r="D461" s="38">
+        <v>2</v>
+      </c>
       <c r="E461" s="9"/>
       <c r="F461" s="20"/>
       <c r="G461" s="13" t="str">
@@ -11972,66 +12533,96 @@
       <c r="H461" s="38"/>
       <c r="I461" s="9"/>
       <c r="J461" s="11"/>
-      <c r="K461" s="20"/>
+      <c r="K461" s="20" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A462" s="39"/>
-      <c r="B462" s="20"/>
-      <c r="C462" s="13"/>
+      <c r="A462" s="39">
+        <v>44013</v>
+      </c>
+      <c r="B462" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C462" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D462" s="38"/>
       <c r="E462" s="9"/>
       <c r="F462" s="20"/>
-      <c r="G462" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H462" s="38"/>
+      <c r="G462" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H462" s="38">
+        <v>2</v>
+      </c>
       <c r="I462" s="9"/>
       <c r="J462" s="11"/>
-      <c r="K462" s="20"/>
+      <c r="K462" s="20" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="39"/>
-      <c r="B463" s="20"/>
-      <c r="C463" s="13"/>
+      <c r="B463" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="C463" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D463" s="38"/>
       <c r="E463" s="9"/>
       <c r="F463" s="20"/>
-      <c r="G463" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G463" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H463" s="38"/>
       <c r="I463" s="9"/>
       <c r="J463" s="11"/>
-      <c r="K463" s="20"/>
+      <c r="K463" s="20" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="39"/>
-      <c r="B464" s="20"/>
-      <c r="C464" s="13"/>
-      <c r="D464" s="38"/>
+      <c r="B464" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C464" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D464" s="38">
+        <v>1</v>
+      </c>
       <c r="E464" s="9"/>
       <c r="F464" s="20"/>
-      <c r="G464" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G464" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H464" s="38"/>
       <c r="I464" s="9"/>
       <c r="J464" s="11"/>
-      <c r="K464" s="20"/>
+      <c r="K464" s="20" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A465" s="39"/>
+      <c r="A465" s="39">
+        <v>44044</v>
+      </c>
       <c r="B465" s="20"/>
-      <c r="C465" s="13"/>
+      <c r="C465" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D465" s="38"/>
       <c r="E465" s="9"/>
       <c r="F465" s="20"/>
-      <c r="G465" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G465" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H465" s="38"/>
       <c r="I465" s="9"/>
@@ -12039,31 +12630,45 @@
       <c r="K465" s="20"/>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A466" s="39"/>
-      <c r="B466" s="20"/>
-      <c r="C466" s="13"/>
+      <c r="A466" s="39">
+        <v>44075</v>
+      </c>
+      <c r="B466" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C466" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D466" s="38"/>
       <c r="E466" s="9"/>
       <c r="F466" s="20"/>
-      <c r="G466" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H466" s="38"/>
+      <c r="G466" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H466" s="38">
+        <v>1</v>
+      </c>
       <c r="I466" s="9"/>
       <c r="J466" s="11"/>
-      <c r="K466" s="20"/>
+      <c r="K466" s="20" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A467" s="39"/>
+      <c r="A467" s="39">
+        <v>44105</v>
+      </c>
       <c r="B467" s="20"/>
-      <c r="C467" s="13"/>
+      <c r="C467" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D467" s="38"/>
       <c r="E467" s="9"/>
       <c r="F467" s="20"/>
-      <c r="G467" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G467" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H467" s="38"/>
       <c r="I467" s="9"/>
@@ -12071,15 +12676,19 @@
       <c r="K467" s="20"/>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A468" s="39"/>
+      <c r="A468" s="39">
+        <v>44136</v>
+      </c>
       <c r="B468" s="20"/>
-      <c r="C468" s="13"/>
+      <c r="C468" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D468" s="38"/>
       <c r="E468" s="9"/>
       <c r="F468" s="20"/>
-      <c r="G468" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G468" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H468" s="38"/>
       <c r="I468" s="9"/>
@@ -12087,15 +12696,19 @@
       <c r="K468" s="20"/>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A469" s="39"/>
+      <c r="A469" s="39">
+        <v>44166</v>
+      </c>
       <c r="B469" s="20"/>
-      <c r="C469" s="13"/>
+      <c r="C469" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D469" s="38"/>
       <c r="E469" s="9"/>
       <c r="F469" s="20"/>
-      <c r="G469" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G469" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H469" s="38"/>
       <c r="I469" s="9"/>
@@ -12103,7 +12716,9 @@
       <c r="K469" s="20"/>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A470" s="39"/>
+      <c r="A470" s="47" t="s">
+        <v>57</v>
+      </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
       <c r="D470" s="38"/>
@@ -12119,15 +12734,19 @@
       <c r="K470" s="20"/>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A471" s="39"/>
+      <c r="A471" s="39">
+        <v>44206</v>
+      </c>
       <c r="B471" s="20"/>
-      <c r="C471" s="13"/>
+      <c r="C471" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D471" s="38"/>
       <c r="E471" s="9"/>
       <c r="F471" s="20"/>
-      <c r="G471" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G471" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H471" s="38"/>
       <c r="I471" s="9"/>
@@ -12135,15 +12754,21 @@
       <c r="K471" s="20"/>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A472" s="39"/>
-      <c r="B472" s="20"/>
-      <c r="C472" s="13"/>
+      <c r="A472" s="39">
+        <v>44228</v>
+      </c>
+      <c r="B472" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="C472" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D472" s="38"/>
       <c r="E472" s="9"/>
       <c r="F472" s="20"/>
-      <c r="G472" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G472" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H472" s="38"/>
       <c r="I472" s="9"/>
@@ -12151,31 +12776,41 @@
       <c r="K472" s="20"/>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A473" s="39"/>
+      <c r="A473" s="39">
+        <v>44256</v>
+      </c>
       <c r="B473" s="20"/>
-      <c r="C473" s="13"/>
+      <c r="C473" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D473" s="38"/>
       <c r="E473" s="9"/>
       <c r="F473" s="20"/>
-      <c r="G473" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G473" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H473" s="38"/>
       <c r="I473" s="9"/>
       <c r="J473" s="11"/>
-      <c r="K473" s="20"/>
+      <c r="K473" s="20" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A474" s="39"/>
+      <c r="A474" s="39">
+        <v>44287</v>
+      </c>
       <c r="B474" s="20"/>
-      <c r="C474" s="13"/>
+      <c r="C474" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D474" s="38"/>
       <c r="E474" s="9"/>
       <c r="F474" s="20"/>
-      <c r="G474" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G474" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H474" s="38"/>
       <c r="I474" s="9"/>
@@ -12183,15 +12818,19 @@
       <c r="K474" s="20"/>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A475" s="39"/>
+      <c r="A475" s="39">
+        <v>44317</v>
+      </c>
       <c r="B475" s="20"/>
-      <c r="C475" s="13"/>
+      <c r="C475" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D475" s="38"/>
       <c r="E475" s="9"/>
       <c r="F475" s="20"/>
-      <c r="G475" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G475" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H475" s="38"/>
       <c r="I475" s="9"/>
@@ -12199,24 +12838,34 @@
       <c r="K475" s="20"/>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A476" s="39"/>
-      <c r="B476" s="20"/>
-      <c r="C476" s="13"/>
+      <c r="A476" s="39">
+        <v>44348</v>
+      </c>
+      <c r="B476" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C476" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D476" s="38"/>
       <c r="E476" s="9"/>
       <c r="F476" s="20"/>
-      <c r="G476" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G476" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H476" s="38"/>
       <c r="I476" s="9"/>
       <c r="J476" s="11"/>
-      <c r="K476" s="20"/>
+      <c r="K476" s="20" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="39"/>
-      <c r="B477" s="20"/>
+      <c r="B477" s="20" t="s">
+        <v>314</v>
+      </c>
       <c r="C477" s="13"/>
       <c r="D477" s="38"/>
       <c r="E477" s="9"/>
@@ -12225,14 +12874,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H477" s="38"/>
+      <c r="H477" s="38">
+        <v>1</v>
+      </c>
       <c r="I477" s="9"/>
       <c r="J477" s="11"/>
-      <c r="K477" s="20"/>
+      <c r="K477" s="20" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="39"/>
-      <c r="B478" s="20"/>
+      <c r="B478" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C478" s="13"/>
       <c r="D478" s="38"/>
       <c r="E478" s="9"/>
@@ -12241,21 +12896,29 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H478" s="38"/>
+      <c r="H478" s="38">
+        <v>5</v>
+      </c>
       <c r="I478" s="9"/>
       <c r="J478" s="11"/>
-      <c r="K478" s="20"/>
+      <c r="K478" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A479" s="39"/>
+      <c r="A479" s="39">
+        <v>44378</v>
+      </c>
       <c r="B479" s="20"/>
-      <c r="C479" s="13"/>
+      <c r="C479" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D479" s="38"/>
       <c r="E479" s="9"/>
       <c r="F479" s="20"/>
-      <c r="G479" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G479" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H479" s="38"/>
       <c r="I479" s="9"/>
@@ -12263,15 +12926,19 @@
       <c r="K479" s="20"/>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A480" s="39"/>
+      <c r="A480" s="39">
+        <v>44409</v>
+      </c>
       <c r="B480" s="20"/>
-      <c r="C480" s="13"/>
+      <c r="C480" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D480" s="38"/>
       <c r="E480" s="9"/>
       <c r="F480" s="20"/>
-      <c r="G480" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G480" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H480" s="38"/>
       <c r="I480" s="9"/>
@@ -12279,15 +12946,19 @@
       <c r="K480" s="20"/>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A481" s="39"/>
+      <c r="A481" s="39">
+        <v>44440</v>
+      </c>
       <c r="B481" s="20"/>
-      <c r="C481" s="13"/>
+      <c r="C481" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D481" s="38"/>
       <c r="E481" s="9"/>
       <c r="F481" s="20"/>
-      <c r="G481" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G481" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H481" s="38"/>
       <c r="I481" s="9"/>
@@ -12295,15 +12966,19 @@
       <c r="K481" s="20"/>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A482" s="39"/>
+      <c r="A482" s="39">
+        <v>44470</v>
+      </c>
       <c r="B482" s="20"/>
-      <c r="C482" s="13"/>
+      <c r="C482" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D482" s="38"/>
       <c r="E482" s="9"/>
       <c r="F482" s="20"/>
-      <c r="G482" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G482" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H482" s="38"/>
       <c r="I482" s="9"/>
@@ -12311,15 +12986,19 @@
       <c r="K482" s="20"/>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A483" s="39"/>
+      <c r="A483" s="39">
+        <v>44501</v>
+      </c>
       <c r="B483" s="20"/>
-      <c r="C483" s="13"/>
+      <c r="C483" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D483" s="38"/>
       <c r="E483" s="9"/>
       <c r="F483" s="20"/>
-      <c r="G483" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G483" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H483" s="38"/>
       <c r="I483" s="9"/>
@@ -12327,15 +13006,23 @@
       <c r="K483" s="20"/>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A484" s="39"/>
-      <c r="B484" s="20"/>
-      <c r="C484" s="13"/>
-      <c r="D484" s="38"/>
+      <c r="A484" s="39">
+        <v>44531</v>
+      </c>
+      <c r="B484" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C484" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D484" s="38">
+        <v>5</v>
+      </c>
       <c r="E484" s="9"/>
       <c r="F484" s="20"/>
-      <c r="G484" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G484" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H484" s="38"/>
       <c r="I484" s="9"/>
@@ -12343,7 +13030,9 @@
       <c r="K484" s="20"/>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A485" s="39"/>
+      <c r="A485" s="47" t="s">
+        <v>60</v>
+      </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
       <c r="D485" s="38"/>
@@ -12359,15 +13048,19 @@
       <c r="K485" s="20"/>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A486" s="39"/>
+      <c r="A486" s="39">
+        <v>44562</v>
+      </c>
       <c r="B486" s="20"/>
-      <c r="C486" s="13"/>
+      <c r="C486" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D486" s="38"/>
       <c r="E486" s="9"/>
       <c r="F486" s="20"/>
-      <c r="G486" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G486" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H486" s="38"/>
       <c r="I486" s="9"/>
@@ -12375,15 +13068,19 @@
       <c r="K486" s="20"/>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A487" s="39"/>
+      <c r="A487" s="39">
+        <v>44593</v>
+      </c>
       <c r="B487" s="20"/>
-      <c r="C487" s="13"/>
+      <c r="C487" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D487" s="38"/>
       <c r="E487" s="9"/>
       <c r="F487" s="20"/>
-      <c r="G487" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G487" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H487" s="38"/>
       <c r="I487" s="9"/>
@@ -12391,15 +13088,19 @@
       <c r="K487" s="20"/>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A488" s="39"/>
+      <c r="A488" s="39">
+        <v>44621</v>
+      </c>
       <c r="B488" s="20"/>
-      <c r="C488" s="13"/>
+      <c r="C488" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D488" s="38"/>
       <c r="E488" s="9"/>
       <c r="F488" s="20"/>
-      <c r="G488" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G488" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H488" s="38"/>
       <c r="I488" s="9"/>
@@ -12407,15 +13108,19 @@
       <c r="K488" s="20"/>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A489" s="39"/>
+      <c r="A489" s="39">
+        <v>44652</v>
+      </c>
       <c r="B489" s="20"/>
-      <c r="C489" s="13"/>
+      <c r="C489" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D489" s="38"/>
       <c r="E489" s="9"/>
       <c r="F489" s="20"/>
-      <c r="G489" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G489" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H489" s="38"/>
       <c r="I489" s="9"/>
@@ -12423,15 +13128,19 @@
       <c r="K489" s="20"/>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A490" s="39"/>
+      <c r="A490" s="39">
+        <v>44682</v>
+      </c>
       <c r="B490" s="20"/>
-      <c r="C490" s="13"/>
+      <c r="C490" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D490" s="38"/>
       <c r="E490" s="9"/>
       <c r="F490" s="20"/>
-      <c r="G490" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G490" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H490" s="38"/>
       <c r="I490" s="9"/>
@@ -12439,15 +13148,19 @@
       <c r="K490" s="20"/>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A491" s="39"/>
+      <c r="A491" s="39">
+        <v>44713</v>
+      </c>
       <c r="B491" s="20"/>
-      <c r="C491" s="13"/>
+      <c r="C491" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D491" s="38"/>
       <c r="E491" s="9"/>
       <c r="F491" s="20"/>
-      <c r="G491" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G491" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H491" s="38"/>
       <c r="I491" s="9"/>
@@ -12455,15 +13168,19 @@
       <c r="K491" s="20"/>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A492" s="39"/>
+      <c r="A492" s="39">
+        <v>44743</v>
+      </c>
       <c r="B492" s="20"/>
-      <c r="C492" s="13"/>
+      <c r="C492" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D492" s="38"/>
       <c r="E492" s="9"/>
       <c r="F492" s="20"/>
-      <c r="G492" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G492" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H492" s="38"/>
       <c r="I492" s="9"/>
@@ -12471,15 +13188,19 @@
       <c r="K492" s="20"/>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A493" s="39"/>
+      <c r="A493" s="39">
+        <v>44774</v>
+      </c>
       <c r="B493" s="20"/>
-      <c r="C493" s="13"/>
+      <c r="C493" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D493" s="38"/>
       <c r="E493" s="9"/>
       <c r="F493" s="20"/>
-      <c r="G493" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G493" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H493" s="38"/>
       <c r="I493" s="9"/>
@@ -12487,15 +13208,19 @@
       <c r="K493" s="20"/>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A494" s="39"/>
+      <c r="A494" s="39">
+        <v>44805</v>
+      </c>
       <c r="B494" s="20"/>
-      <c r="C494" s="13"/>
+      <c r="C494" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D494" s="38"/>
       <c r="E494" s="9"/>
       <c r="F494" s="20"/>
-      <c r="G494" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G494" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H494" s="38"/>
       <c r="I494" s="9"/>
@@ -12503,15 +13228,19 @@
       <c r="K494" s="20"/>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A495" s="39"/>
+      <c r="A495" s="39">
+        <v>44835</v>
+      </c>
       <c r="B495" s="20"/>
-      <c r="C495" s="13"/>
+      <c r="C495" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D495" s="38"/>
       <c r="E495" s="9"/>
       <c r="F495" s="20"/>
-      <c r="G495" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G495" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H495" s="38"/>
       <c r="I495" s="9"/>
@@ -12519,15 +13248,19 @@
       <c r="K495" s="20"/>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A496" s="39"/>
+      <c r="A496" s="39">
+        <v>44866</v>
+      </c>
       <c r="B496" s="20"/>
-      <c r="C496" s="13"/>
+      <c r="C496" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D496" s="38"/>
       <c r="E496" s="9"/>
       <c r="F496" s="20"/>
-      <c r="G496" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G496" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H496" s="38"/>
       <c r="I496" s="9"/>
@@ -12535,20 +13268,358 @@
       <c r="K496" s="20"/>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A497" s="40"/>
-      <c r="B497" s="15"/>
-      <c r="C497" s="41"/>
-      <c r="D497" s="42"/>
+      <c r="A497" s="39">
+        <v>44896</v>
+      </c>
+      <c r="B497" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C497" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D497" s="38">
+        <v>5</v>
+      </c>
       <c r="E497" s="9"/>
-      <c r="F497" s="15"/>
-      <c r="G497" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H497" s="42"/>
+      <c r="F497" s="20"/>
+      <c r="G497" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H497" s="38"/>
       <c r="I497" s="9"/>
-      <c r="J497" s="12"/>
-      <c r="K497" s="15"/>
+      <c r="J497" s="11"/>
+      <c r="K497" s="20"/>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A498" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="B498" s="20"/>
+      <c r="C498" s="13"/>
+      <c r="D498" s="38"/>
+      <c r="E498" s="9"/>
+      <c r="F498" s="20"/>
+      <c r="G498" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H498" s="38"/>
+      <c r="I498" s="9"/>
+      <c r="J498" s="11"/>
+      <c r="K498" s="20"/>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A499" s="39">
+        <v>44927</v>
+      </c>
+      <c r="B499" s="20"/>
+      <c r="C499" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D499" s="38"/>
+      <c r="E499" s="9"/>
+      <c r="F499" s="20"/>
+      <c r="G499" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H499" s="38"/>
+      <c r="I499" s="9"/>
+      <c r="J499" s="11"/>
+      <c r="K499" s="20"/>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A500" s="39">
+        <v>44958</v>
+      </c>
+      <c r="B500" s="20"/>
+      <c r="C500" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D500" s="38"/>
+      <c r="E500" s="9"/>
+      <c r="F500" s="20"/>
+      <c r="G500" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H500" s="38"/>
+      <c r="I500" s="9"/>
+      <c r="J500" s="11"/>
+      <c r="K500" s="20"/>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A501" s="39">
+        <v>44986</v>
+      </c>
+      <c r="B501" s="20"/>
+      <c r="C501" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D501" s="38"/>
+      <c r="E501" s="9"/>
+      <c r="F501" s="20"/>
+      <c r="G501" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H501" s="38"/>
+      <c r="I501" s="9"/>
+      <c r="J501" s="11"/>
+      <c r="K501" s="20"/>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A502" s="39">
+        <v>45017</v>
+      </c>
+      <c r="B502" s="20"/>
+      <c r="C502" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D502" s="38"/>
+      <c r="E502" s="9"/>
+      <c r="F502" s="20"/>
+      <c r="G502" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H502" s="38"/>
+      <c r="I502" s="9"/>
+      <c r="J502" s="11"/>
+      <c r="K502" s="20"/>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A503" s="39">
+        <v>45047</v>
+      </c>
+      <c r="B503" s="20"/>
+      <c r="C503" s="13"/>
+      <c r="D503" s="38"/>
+      <c r="E503" s="9"/>
+      <c r="F503" s="20"/>
+      <c r="G503" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H503" s="38"/>
+      <c r="I503" s="9"/>
+      <c r="J503" s="11"/>
+      <c r="K503" s="20"/>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A504" s="39">
+        <v>45078</v>
+      </c>
+      <c r="B504" s="20"/>
+      <c r="C504" s="13"/>
+      <c r="D504" s="38"/>
+      <c r="E504" s="9"/>
+      <c r="F504" s="20"/>
+      <c r="G504" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H504" s="38"/>
+      <c r="I504" s="9"/>
+      <c r="J504" s="11"/>
+      <c r="K504" s="20"/>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A505" s="39">
+        <v>45108</v>
+      </c>
+      <c r="B505" s="20"/>
+      <c r="C505" s="13"/>
+      <c r="D505" s="38"/>
+      <c r="E505" s="9"/>
+      <c r="F505" s="20"/>
+      <c r="G505" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H505" s="38"/>
+      <c r="I505" s="9"/>
+      <c r="J505" s="11"/>
+      <c r="K505" s="20"/>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A506" s="39">
+        <v>45139</v>
+      </c>
+      <c r="B506" s="20"/>
+      <c r="C506" s="13"/>
+      <c r="D506" s="38"/>
+      <c r="E506" s="9"/>
+      <c r="F506" s="20"/>
+      <c r="G506" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H506" s="38"/>
+      <c r="I506" s="9"/>
+      <c r="J506" s="11"/>
+      <c r="K506" s="20"/>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A507" s="39"/>
+      <c r="B507" s="20"/>
+      <c r="C507" s="13"/>
+      <c r="D507" s="38"/>
+      <c r="E507" s="9"/>
+      <c r="F507" s="20"/>
+      <c r="G507" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H507" s="38"/>
+      <c r="I507" s="9"/>
+      <c r="J507" s="11"/>
+      <c r="K507" s="20"/>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A508" s="39"/>
+      <c r="B508" s="20"/>
+      <c r="C508" s="13"/>
+      <c r="D508" s="38"/>
+      <c r="E508" s="9"/>
+      <c r="F508" s="20"/>
+      <c r="G508" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H508" s="38"/>
+      <c r="I508" s="9"/>
+      <c r="J508" s="11"/>
+      <c r="K508" s="20"/>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A509" s="39"/>
+      <c r="B509" s="20"/>
+      <c r="C509" s="13"/>
+      <c r="D509" s="38"/>
+      <c r="E509" s="9"/>
+      <c r="F509" s="20"/>
+      <c r="G509" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H509" s="38"/>
+      <c r="I509" s="9"/>
+      <c r="J509" s="11"/>
+      <c r="K509" s="20"/>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A510" s="39"/>
+      <c r="B510" s="20"/>
+      <c r="C510" s="13"/>
+      <c r="D510" s="38"/>
+      <c r="E510" s="9"/>
+      <c r="F510" s="20"/>
+      <c r="G510" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H510" s="38"/>
+      <c r="I510" s="9"/>
+      <c r="J510" s="11"/>
+      <c r="K510" s="20"/>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A511" s="39"/>
+      <c r="B511" s="20"/>
+      <c r="C511" s="13"/>
+      <c r="D511" s="38"/>
+      <c r="E511" s="9"/>
+      <c r="F511" s="20"/>
+      <c r="G511" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H511" s="38"/>
+      <c r="I511" s="9"/>
+      <c r="J511" s="11"/>
+      <c r="K511" s="20"/>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A512" s="39"/>
+      <c r="B512" s="20"/>
+      <c r="C512" s="13"/>
+      <c r="D512" s="38"/>
+      <c r="E512" s="9"/>
+      <c r="F512" s="20"/>
+      <c r="G512" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H512" s="38"/>
+      <c r="I512" s="9"/>
+      <c r="J512" s="11"/>
+      <c r="K512" s="20"/>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A513" s="39"/>
+      <c r="B513" s="20"/>
+      <c r="C513" s="13"/>
+      <c r="D513" s="38"/>
+      <c r="E513" s="9"/>
+      <c r="F513" s="20"/>
+      <c r="G513" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H513" s="38"/>
+      <c r="I513" s="9"/>
+      <c r="J513" s="11"/>
+      <c r="K513" s="20"/>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A514" s="39"/>
+      <c r="B514" s="20"/>
+      <c r="C514" s="13"/>
+      <c r="D514" s="38"/>
+      <c r="E514" s="9"/>
+      <c r="F514" s="20"/>
+      <c r="G514" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H514" s="38"/>
+      <c r="I514" s="9"/>
+      <c r="J514" s="11"/>
+      <c r="K514" s="20"/>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A515" s="39"/>
+      <c r="B515" s="20"/>
+      <c r="C515" s="13"/>
+      <c r="D515" s="38"/>
+      <c r="E515" s="9"/>
+      <c r="F515" s="20"/>
+      <c r="G515" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H515" s="38"/>
+      <c r="I515" s="9"/>
+      <c r="J515" s="11"/>
+      <c r="K515" s="20"/>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A516" s="40"/>
+      <c r="B516" s="15"/>
+      <c r="C516" s="41"/>
+      <c r="D516" s="42"/>
+      <c r="E516" s="9"/>
+      <c r="F516" s="15"/>
+      <c r="G516" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H516" s="42"/>
+      <c r="I516" s="9"/>
+      <c r="J516" s="12"/>
+      <c r="K516" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12595,7 +13666,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D25"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12657,18 +13728,16 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="D3" s="11">
-        <v>2</v>
-      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="11">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.1440000000000001</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="J3" s="46">
         <v>16</v>
